--- a/Tablas de sonido/CueSheet_nolineal.xlsx
+++ b/Tablas de sonido/CueSheet_nolineal.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="360" yWindow="495" windowWidth="21015" windowHeight="9405" activeTab="3"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Principal" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="CueSheet intro" sheetId="2" r:id="rId4"/>
-    <sheet state="visible" name="CueSheet Menú" sheetId="3" r:id="rId5"/>
-    <sheet state="visible" name="CueSheet Nivel 1" sheetId="4" r:id="rId6"/>
+    <sheet name="Principal" sheetId="1" r:id="rId1"/>
+    <sheet name="CueSheet intro" sheetId="2" r:id="rId2"/>
+    <sheet name="CueSheet Menu" sheetId="5" r:id="rId3"/>
+    <sheet name="CueSheet Nivel 1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="245">
   <si>
     <t>Cue-Sheet intro</t>
   </si>
@@ -25,9 +28,6 @@
     <t>ID plano</t>
   </si>
   <si>
-    <t>Cue-Sheet Menú</t>
-  </si>
-  <si>
     <t>Tempo-</t>
   </si>
   <si>
@@ -172,9 +172,6 @@
     <t>¿más?</t>
   </si>
   <si>
-    <t>Musica/situacion estandar</t>
-  </si>
-  <si>
     <t>(añadir líneas si es necesario)</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
     <t>Golpe de una cabeza con un objeto, puede incluir una voz del heavy</t>
   </si>
   <si>
-    <t>SFX/Personaje Arma de madera golpea</t>
-  </si>
-  <si>
     <t>Cuando golpea un arma de madera sobre el enemigo</t>
   </si>
   <si>
@@ -460,9 +454,6 @@
     <t>Arma que daña con el sonido que emite la flauta</t>
   </si>
   <si>
-    <t>SFX/Personaje Arma metalica golpea</t>
-  </si>
-  <si>
     <t>Cuando golpea un arma metalica sobre el enemigo</t>
   </si>
   <si>
@@ -746,111 +737,139 @@
   </si>
   <si>
     <t>La muerte va hablando durante el nivel, desanimando al jugador</t>
+  </si>
+  <si>
+    <t>Musica/situacion estandar n1</t>
+  </si>
+  <si>
+    <t>Musica/situacion estandar n2</t>
+  </si>
+  <si>
+    <t>Musica/menu principal</t>
+  </si>
+  <si>
+    <t>SFX/Personaje Guitarra golpea</t>
+  </si>
+  <si>
+    <t>SFX/Personaje Arpa golpea</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="21">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="24.0"/>
+      <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF6600"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -858,7 +877,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -886,7 +905,13 @@
     </fill>
   </fills>
   <borders count="40">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
@@ -898,6 +923,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -908,6 +934,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -922,6 +949,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -934,6 +962,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -948,6 +977,7 @@
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -956,12 +986,14 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -972,6 +1004,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -980,6 +1013,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -990,6 +1024,7 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1002,6 +1037,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1012,6 +1048,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1026,6 +1063,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1038,6 +1076,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1052,11 +1091,16 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1065,11 +1109,18 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1078,19 +1129,29 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1099,17 +1160,22 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1118,9 +1184,11 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1131,6 +1199,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1141,6 +1210,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1149,6 +1219,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1161,6 +1232,7 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -1171,6 +1243,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1181,6 +1254,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1189,6 +1263,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1201,409 +1276,392 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="120">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="12" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="21" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="46" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="46" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="46" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="46" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="4" numFmtId="21" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="23" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="25" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="4" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="4" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="28" fillId="4" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="29" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="30" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="31" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="32" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="33" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="34" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="35" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="36" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="33" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="36" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="37" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="34" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="38" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="34" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="34" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="34" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="34" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="34" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="39" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="39" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="39" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="39" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-ES"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -1620,34 +1678,61 @@
               </a:solidFill>
             </c:spPr>
           </c:dPt>
-          <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Principal!$C$3:$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Música</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ambiente</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hard</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Foley</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Diseño</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Voces</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Principal!$C$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -1658,15 +1743,20 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:overlay val="0"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1675,9 +1765,9 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4229100" cy="3038475"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1"/>
+        <xdr:cNvPr id="0" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1686,7 +1776,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1695,41 +1785,310 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.0"/>
-    <col customWidth="1" min="2" max="2" width="25.78"/>
-    <col customWidth="1" min="3" max="8" width="8.11"/>
-    <col customWidth="1" min="9" max="9" width="7.67"/>
-    <col customWidth="1" min="10" max="26" width="11.44"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="8" width="8.125" customWidth="1"/>
+    <col min="9" max="9" width="7.625" customWidth="1"/>
+    <col min="10" max="26" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="31.5">
       <c r="B1" s="51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="51"/>
       <c r="F1" s="55"/>
@@ -1743,12 +2102,12 @@
       <c r="N1" s="55"/>
       <c r="O1" s="55"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="15.75">
       <c r="B2" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="57" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="58"/>
       <c r="E2" s="58"/>
@@ -1757,31 +2116,31 @@
       <c r="H2" s="58"/>
       <c r="I2" s="59"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="15.75">
       <c r="A3" s="60"/>
       <c r="B3" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="D3" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="E3" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="F3" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="G3" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="H3" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="I3" s="64" t="s">
         <v>39</v>
-      </c>
-      <c r="I3" s="64" t="s">
-        <v>40</v>
       </c>
       <c r="J3" s="60"/>
       <c r="K3" s="60"/>
@@ -1801,9 +2160,9 @@
       <c r="Y3" s="60"/>
       <c r="Z3" s="60"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="15.75">
       <c r="B4" s="65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="66"/>
       <c r="D4" s="55"/>
@@ -1813,9 +2172,9 @@
       <c r="H4" s="55"/>
       <c r="I4" s="67"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="15.75">
       <c r="B5" s="69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="66"/>
       <c r="D5" s="55"/>
@@ -1824,41 +2183,41 @@
       <c r="G5" s="55"/>
       <c r="H5" s="55"/>
       <c r="I5" s="67">
-        <f t="shared" ref="I5:I6" si="1">SUM(C5:H5)</f>
+        <f t="shared" ref="I5:I6" si="0">SUM(C5:H5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="15.75">
       <c r="B6" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="74">
+        <v>7</v>
+      </c>
+      <c r="D6" s="76">
+        <v>7</v>
+      </c>
+      <c r="E6" s="76">
+        <v>19</v>
+      </c>
+      <c r="F6" s="76">
+        <v>25</v>
+      </c>
+      <c r="G6" s="76">
+        <v>22</v>
+      </c>
+      <c r="H6" s="76">
+        <v>7</v>
+      </c>
+      <c r="I6" s="67">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="J6" s="79"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75">
+      <c r="B7" s="81" t="s">
         <v>50</v>
-      </c>
-      <c r="C6" s="74">
-        <v>7.0</v>
-      </c>
-      <c r="D6" s="76">
-        <v>7.0</v>
-      </c>
-      <c r="E6" s="76">
-        <v>19.0</v>
-      </c>
-      <c r="F6" s="76">
-        <v>25.0</v>
-      </c>
-      <c r="G6" s="76">
-        <v>22.0</v>
-      </c>
-      <c r="H6" s="76">
-        <v>7.0</v>
-      </c>
-      <c r="I6" s="67">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="J6" s="79"/>
-    </row>
-    <row r="7">
-      <c r="B7" s="81" t="s">
-        <v>51</v>
       </c>
       <c r="C7" s="66"/>
       <c r="D7" s="55"/>
@@ -1868,9 +2227,9 @@
       <c r="H7" s="55"/>
       <c r="I7" s="67"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="15.75">
       <c r="B8" s="81" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="66"/>
       <c r="D8" s="55"/>
@@ -1880,7 +2239,7 @@
       <c r="H8" s="55"/>
       <c r="I8" s="67"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="15.75">
       <c r="B9" s="81"/>
       <c r="C9" s="66"/>
       <c r="D9" s="55"/>
@@ -1890,7 +2249,7 @@
       <c r="H9" s="55"/>
       <c r="I9" s="67"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="15.75">
       <c r="B10" s="81"/>
       <c r="C10" s="66"/>
       <c r="D10" s="55"/>
@@ -1900,56 +2259,56 @@
       <c r="H10" s="55"/>
       <c r="I10" s="67"/>
     </row>
-    <row r="11">
-      <c r="B11" s="86"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="93"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="96">
-        <v>8.0</v>
-      </c>
-      <c r="D12" s="98">
-        <f t="shared" ref="D12:I12" si="2">SUM(D5:D11)</f>
+    <row r="11" spans="1:26" ht="15.75">
+      <c r="B11" s="85"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="91"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75">
+      <c r="B12" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="93">
+        <v>8</v>
+      </c>
+      <c r="D12" s="95">
+        <f t="shared" ref="D12:I12" si="1">SUM(D5:D11)</f>
         <v>7</v>
       </c>
-      <c r="E12" s="98">
-        <f t="shared" si="2"/>
+      <c r="E12" s="95">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="F12" s="98">
-        <f t="shared" si="2"/>
+      <c r="F12" s="95">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="G12" s="98">
-        <f t="shared" si="2"/>
+      <c r="G12" s="95">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="H12" s="98">
-        <f t="shared" si="2"/>
+      <c r="H12" s="95">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I12" s="98">
-        <f t="shared" si="2"/>
+      <c r="I12" s="95">
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" ht="15.75">
       <c r="B13" s="55"/>
-      <c r="C13" s="99"/>
-    </row>
-    <row r="14">
+      <c r="C13" s="96"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75">
       <c r="B14" s="55"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" ht="15.75">
       <c r="B15" s="55"/>
     </row>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -2934,40 +3293,37 @@
     <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="Cue Sheet Menú" location="CueSheet Menú!A1" ref="B4"/>
-    <hyperlink display="Cue sheet de la intro" location="CueSheet intro!A1" ref="B5"/>
-    <hyperlink display="Cue sheet del nivel 1" location="CueSheet Nivel 1!A1" ref="B6"/>
+    <hyperlink ref="B4" location="CueSheet Menú!A1" display="Cue Sheet Menú"/>
+    <hyperlink ref="B5" location="CueSheet intro!A1" display="Cue sheet de la intro"/>
+    <hyperlink ref="B6" location="CueSheet Nivel 1!A1" display="Cue sheet del nivel 1"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q992"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.67"/>
-    <col customWidth="1" min="2" max="4" width="6.67"/>
-    <col customWidth="1" min="5" max="5" width="8.0"/>
-    <col customWidth="1" min="6" max="11" width="2.0"/>
-    <col customWidth="1" min="12" max="12" width="7.33"/>
-    <col customWidth="1" min="13" max="14" width="10.67"/>
-    <col customWidth="1" min="15" max="15" width="8.67"/>
-    <col customWidth="1" min="16" max="16" width="23.44"/>
-    <col customWidth="1" min="17" max="17" width="21.67"/>
-    <col customWidth="1" min="18" max="26" width="10.56"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="11" width="2" customWidth="1"/>
+    <col min="12" max="12" width="7.375" customWidth="1"/>
+    <col min="13" max="14" width="10.625" customWidth="1"/>
+    <col min="15" max="15" width="8.625" customWidth="1"/>
+    <col min="16" max="16" width="23.5" customWidth="1"/>
+    <col min="17" max="17" width="21.625" customWidth="1"/>
+    <col min="18" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:17" ht="31.5">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2990,92 +3346,92 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
+    <row r="2" spans="1:17" ht="13.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>6</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="10"/>
       <c r="L2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1">
+    </row>
+    <row r="3" spans="1:17" ht="13.5" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="12"/>
       <c r="C3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="L3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="N3" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="17"/>
     </row>
-    <row r="4" ht="13.5" customHeight="1">
+    <row r="4" spans="1:17" ht="13.5" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -3093,7 +3449,7 @@
       <c r="P4" s="19"/>
       <c r="Q4" s="24"/>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
+    <row r="5" spans="1:17" ht="13.5" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="25"/>
       <c r="C5" s="26"/>
@@ -3112,7 +3468,7 @@
       <c r="P5" s="31"/>
       <c r="Q5" s="32"/>
     </row>
-    <row r="6" ht="13.5" customHeight="1">
+    <row r="6" spans="1:17" ht="13.5" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="25"/>
       <c r="C6" s="33"/>
@@ -3131,7 +3487,7 @@
       <c r="P6" s="31"/>
       <c r="Q6" s="35"/>
     </row>
-    <row r="7" ht="13.5" customHeight="1">
+    <row r="7" spans="1:17" ht="13.5" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="25"/>
       <c r="C7" s="36"/>
@@ -3150,7 +3506,7 @@
       <c r="P7" s="31"/>
       <c r="Q7" s="35"/>
     </row>
-    <row r="8" ht="13.5" customHeight="1">
+    <row r="8" spans="1:17" ht="13.5" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="25"/>
       <c r="C8" s="36"/>
@@ -3169,7 +3525,7 @@
       <c r="P8" s="31"/>
       <c r="Q8" s="35"/>
     </row>
-    <row r="9" ht="13.5" customHeight="1">
+    <row r="9" spans="1:17" ht="13.5" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="25"/>
       <c r="C9" s="36"/>
@@ -3188,7 +3544,7 @@
       <c r="P9" s="31"/>
       <c r="Q9" s="35"/>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="25"/>
       <c r="C10" s="36"/>
@@ -3207,7 +3563,7 @@
       <c r="P10" s="31"/>
       <c r="Q10" s="35"/>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
+    <row r="11" spans="1:17" ht="13.5" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="38"/>
       <c r="C11" s="39"/>
@@ -3226,12 +3582,12 @@
       <c r="P11" s="44"/>
       <c r="Q11" s="45"/>
     </row>
-    <row r="12" ht="13.5" customHeight="1">
+    <row r="12" spans="1:17" ht="13.5" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="46"/>
       <c r="C12" s="1"/>
       <c r="D12" s="47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="47"/>
       <c r="F12" s="48"/>
@@ -3247,12 +3603,12 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" ht="13.5" customHeight="1">
+    <row r="13" spans="1:17" ht="13.5" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
@@ -3268,7 +3624,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" ht="13.5" customHeight="1">
+    <row r="14" spans="1:17" ht="13.5" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3280,7 +3636,7 @@
       <c r="I14" s="50"/>
       <c r="J14" s="50"/>
       <c r="K14" s="52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L14" s="54"/>
       <c r="M14" s="49"/>
@@ -3289,8 +3645,8 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -4268,375 +4624,322 @@
     <row r="991" ht="15.75" customHeight="1"/>
     <row r="992" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W984"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.67"/>
-    <col customWidth="1" min="2" max="4" width="6.67"/>
-    <col customWidth="1" min="5" max="5" width="8.0"/>
-    <col customWidth="1" min="6" max="11" width="2.0"/>
-    <col customWidth="1" min="12" max="12" width="7.33"/>
-    <col customWidth="1" min="13" max="14" width="10.67"/>
-    <col customWidth="1" min="15" max="15" width="8.67"/>
-    <col customWidth="1" min="16" max="16" width="23.44"/>
-    <col customWidth="1" min="17" max="17" width="21.67"/>
-    <col customWidth="1" min="18" max="26" width="10.56"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="34.25" customWidth="1"/>
+    <col min="3" max="8" width="2.125" customWidth="1"/>
+    <col min="9" max="9" width="7.125" customWidth="1"/>
+    <col min="10" max="10" width="23.375" customWidth="1"/>
+    <col min="11" max="11" width="11.375" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="89.5" customWidth="1"/>
+    <col min="14" max="14" width="110.875" customWidth="1"/>
+    <col min="15" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:15" ht="32.25" thickBot="1">
+      <c r="A1" s="68" t="s">
+        <v>41</v>
+      </c>
       <c r="B1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+    </row>
+    <row r="2" spans="1:15" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A2" s="5"/>
       <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
+      <c r="J2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="L2" s="9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="2"/>
+    </row>
+    <row r="3" spans="1:15" ht="13.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A3" s="5"/>
       <c r="B3" s="12"/>
       <c r="C3" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="F3" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="17"/>
-    </row>
-    <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="2"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="17"/>
+    </row>
+    <row r="4" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A4" s="5"/>
       <c r="B4" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="24"/>
-    </row>
-    <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" s="2"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="32"/>
-    </row>
-    <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="35"/>
-    </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="35"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="35"/>
-    </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="35"/>
-    </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="35"/>
-    </row>
-    <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="45"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="52" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="54"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="24"/>
+    </row>
+    <row r="5" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A5" s="110"/>
+      <c r="B5" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="105"/>
+    </row>
+    <row r="6" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A6" s="110"/>
+      <c r="B6" s="98" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="107"/>
+      <c r="I6" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="105" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="118"/>
+      <c r="O6" s="105"/>
+    </row>
+    <row r="7" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A7" s="97"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="105"/>
+    </row>
+    <row r="8" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A8" s="97"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="105"/>
+    </row>
+    <row r="9" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A9" s="97"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="105"/>
+    </row>
+    <row r="10" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A10" s="97"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="105"/>
+    </row>
+    <row r="11" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A11" s="97"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="105"/>
+    </row>
+    <row r="12" spans="1:15" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A12" s="97"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="105"/>
+    </row>
+    <row r="13" spans="1:15" ht="13.5" customHeight="1">
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75"/>
+    <row r="15" spans="1:15" ht="13.5" customHeight="1"/>
+    <row r="16" spans="1:15" ht="13.5" customHeight="1"/>
+    <row r="17" spans="17:23" ht="15.75" customHeight="1"/>
+    <row r="18" spans="17:23" ht="13.5" customHeight="1"/>
+    <row r="19" spans="17:23" ht="13.5" customHeight="1"/>
+    <row r="20" spans="17:23" ht="15.75">
+      <c r="W20" s="82"/>
+    </row>
+    <row r="21" spans="17:23" ht="15.75" customHeight="1"/>
+    <row r="22" spans="17:23" ht="15.75" customHeight="1">
+      <c r="Q22" s="103"/>
+    </row>
+    <row r="23" spans="17:23" ht="15.75" customHeight="1"/>
+    <row r="24" spans="17:23" ht="15.75" customHeight="1"/>
+    <row r="25" spans="17:23" ht="15.75" customHeight="1"/>
+    <row r="26" spans="17:23" ht="15.75" customHeight="1"/>
+    <row r="27" spans="17:23" ht="15.75" customHeight="1"/>
+    <row r="28" spans="17:23" ht="15.75" customHeight="1"/>
+    <row r="29" spans="17:23" ht="15.75" customHeight="1"/>
+    <row r="30" spans="17:23" ht="15.75" customHeight="1"/>
+    <row r="31" spans="17:23" ht="15.75" customHeight="1"/>
+    <row r="32" spans="17:23" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -5589,50 +5892,40 @@
     <row r="982" ht="15.75" customHeight="1"/>
     <row r="983" ht="15.75" customHeight="1"/>
     <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W984"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.67"/>
-    <col customWidth="1" min="2" max="2" width="34.22"/>
-    <col customWidth="1" min="3" max="8" width="2.11"/>
-    <col customWidth="1" min="9" max="9" width="7.11"/>
-    <col customWidth="1" min="10" max="10" width="23.33"/>
-    <col customWidth="1" min="11" max="11" width="11.33"/>
-    <col customWidth="1" min="12" max="12" width="10.67"/>
-    <col customWidth="1" min="13" max="13" width="89.44"/>
-    <col customWidth="1" min="14" max="14" width="110.89"/>
-    <col customWidth="1" min="15" max="26" width="10.56"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="34.25" customWidth="1"/>
+    <col min="3" max="8" width="2.125" customWidth="1"/>
+    <col min="9" max="9" width="7.125" customWidth="1"/>
+    <col min="10" max="10" width="23.375" customWidth="1"/>
+    <col min="11" max="11" width="11.375" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="89.5" customWidth="1"/>
+    <col min="14" max="14" width="110.875" customWidth="1"/>
+    <col min="15" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15" ht="31.5">
       <c r="A1" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -5641,7 +5934,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -5649,76 +5942,76 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
+    <row r="2" spans="1:15" ht="13.5" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="10"/>
       <c r="I2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="M2" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="13.5" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="12"/>
       <c r="C3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="I3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
       <c r="N3" s="17"/>
     </row>
-    <row r="4" ht="13.5" customHeight="1">
+    <row r="4" spans="1:15" ht="13.5" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="22"/>
@@ -5733,10 +6026,10 @@
       <c r="M4" s="19"/>
       <c r="N4" s="24"/>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
+    <row r="5" spans="1:15" ht="13.5" customHeight="1">
       <c r="A5" s="70"/>
       <c r="B5" s="71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
@@ -5752,2671 +6045,2701 @@
       <c r="N5" s="78"/>
       <c r="O5" s="80"/>
     </row>
-    <row r="6" ht="13.5" customHeight="1">
+    <row r="6" spans="1:15" ht="13.5" customHeight="1">
       <c r="A6" s="70"/>
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="98" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="83"/>
+      <c r="I6" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="J6" s="105" t="s">
+        <v>53</v>
+      </c>
+      <c r="L6" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="N6" s="118" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="80"/>
+    </row>
+    <row r="7" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A7" s="70"/>
+      <c r="B7" s="98" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="90"/>
+      <c r="L7" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" s="80"/>
+    </row>
+    <row r="8" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A8" s="110"/>
+      <c r="B8" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="109" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" s="105"/>
+    </row>
+    <row r="9" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A9" s="110"/>
+      <c r="B9" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="102" t="s">
+        <v>62</v>
+      </c>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="N9" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" s="105"/>
+    </row>
+    <row r="10" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A10" s="110"/>
+      <c r="B10" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="102" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M10" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="105"/>
+    </row>
+    <row r="11" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A11" s="110"/>
+      <c r="B11" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" s="105"/>
+    </row>
+    <row r="12" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A12" s="97"/>
+      <c r="B12" s="98" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="102" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="105"/>
+      <c r="L12" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M12" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" s="105"/>
+    </row>
+    <row r="13" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A13" s="97"/>
+      <c r="B13" s="98" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="104"/>
+      <c r="K13" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="100" t="s">
+        <v>76</v>
+      </c>
+      <c r="M13" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="O13" s="105"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75">
+      <c r="A14" s="97"/>
+      <c r="B14" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="84"/>
-      <c r="I6" s="85" t="s">
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="106"/>
+      <c r="I14" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="105"/>
+      <c r="K14" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" s="94" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14" s="105"/>
+    </row>
+    <row r="15" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A15" s="97"/>
+      <c r="B15" s="98" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="105"/>
+      <c r="K15" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="O15" s="105"/>
+    </row>
+    <row r="16" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A16" s="97"/>
+      <c r="B16" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="104"/>
+      <c r="K16" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="N16" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="O16" s="105"/>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A17" s="97"/>
+      <c r="B17" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="104"/>
+      <c r="K17" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="N17" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="O17" s="105"/>
+    </row>
+    <row r="18" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A18" s="97"/>
+      <c r="B18" s="98" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" s="105"/>
+      <c r="K18" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="M18" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="N18" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="O18" s="105"/>
+    </row>
+    <row r="19" spans="1:23" ht="13.5" customHeight="1">
+      <c r="A19" s="97"/>
+      <c r="B19" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="106"/>
+      <c r="I19" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="105"/>
+      <c r="K19" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="M19" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="N19" s="101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15.75">
+      <c r="A20" s="97"/>
+      <c r="B20" s="98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="106"/>
+      <c r="I20" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="105"/>
+      <c r="K20" s="108" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="M20" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="N20" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="O20" s="105"/>
+      <c r="W20" s="82"/>
+    </row>
+    <row r="21" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A21" s="97"/>
+      <c r="B21" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="107"/>
+      <c r="I21" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="N6" s="88" t="s">
-        <v>58</v>
-      </c>
-      <c r="O6" s="80"/>
-    </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="70"/>
-      <c r="B7" s="90" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="85" t="s">
+      <c r="M21" s="94"/>
+      <c r="N21" s="97" t="s">
+        <v>106</v>
+      </c>
+      <c r="O21" s="105"/>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A22" s="97"/>
+      <c r="B22" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="107"/>
+      <c r="I22" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" s="92"/>
-      <c r="L7" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="M7" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="O7" s="80"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="70"/>
-      <c r="B8" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85" t="s">
+      <c r="M22" s="107"/>
+      <c r="N22" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="O22" s="105"/>
+      <c r="Q22" s="103"/>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A23" s="97"/>
+      <c r="B23" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="106"/>
+      <c r="I23" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="102" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="105"/>
+      <c r="L23" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="92"/>
-      <c r="L8" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="M8" s="97" t="s">
-        <v>57</v>
-      </c>
-      <c r="N8" s="88" t="s">
-        <v>65</v>
-      </c>
-      <c r="O8" s="80"/>
-    </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="70"/>
-      <c r="B9" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="85" t="s">
+      <c r="M23" s="106"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="105"/>
+    </row>
+    <row r="24" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A24" s="97"/>
+      <c r="B24" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J24" s="105"/>
+      <c r="K24" s="108" t="s">
+        <v>75</v>
+      </c>
+      <c r="L24" s="108" t="s">
+        <v>76</v>
+      </c>
+      <c r="M24" s="106"/>
+      <c r="N24" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="O24" s="105"/>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A25" s="97"/>
+      <c r="B25" s="98" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="105"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="105"/>
+      <c r="G25" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="106"/>
+      <c r="I25" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25" s="102" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25" s="105"/>
+      <c r="L25" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="J9" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="92"/>
-      <c r="L9" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="97" t="s">
-        <v>57</v>
-      </c>
-      <c r="N9" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="O9" s="80"/>
-    </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="70"/>
-      <c r="B10" s="90" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="85" t="s">
+      <c r="M25" s="106"/>
+      <c r="N25" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="O25" s="105"/>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A26" s="97"/>
+      <c r="B26" s="98" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="107"/>
+      <c r="I26" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" s="104"/>
+      <c r="K26" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="94" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" s="92"/>
-      <c r="L10" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="97" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" s="100" t="s">
-        <v>71</v>
-      </c>
-      <c r="O10" s="80"/>
-    </row>
-    <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="101"/>
-      <c r="B11" s="102" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="103" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="85" t="s">
+      <c r="L26" s="99" t="s">
+        <v>118</v>
+      </c>
+      <c r="M26" s="107"/>
+      <c r="N26" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="O26" s="105"/>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A27" s="97"/>
+      <c r="B27" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="107"/>
+      <c r="I27" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27" s="102" t="s">
+        <v>121</v>
+      </c>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="J11" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="80"/>
-      <c r="L11" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" s="97" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="88" t="s">
+      <c r="M27" s="107"/>
+      <c r="N27" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="O27" s="105"/>
+    </row>
+    <row r="28" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A28" s="97"/>
+      <c r="B28" s="98" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="106"/>
+      <c r="I28" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28" s="102" t="s">
+        <v>124</v>
+      </c>
+      <c r="K28" s="105"/>
+      <c r="L28" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M28" s="106"/>
+      <c r="N28" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="O28" s="105"/>
+    </row>
+    <row r="29" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A29" s="97"/>
+      <c r="B29" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="107"/>
+      <c r="I29" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="102" t="s">
+        <v>127</v>
+      </c>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M29" s="106"/>
+      <c r="N29" s="97" t="s">
+        <v>128</v>
+      </c>
+      <c r="O29" s="105"/>
+    </row>
+    <row r="30" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A30" s="97"/>
+      <c r="B30" s="98" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="O11" s="80"/>
-    </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="101"/>
-      <c r="B12" s="90" t="s">
+      <c r="J30" s="104"/>
+      <c r="K30" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L30" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="M30" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N30" s="97" t="s">
+        <v>130</v>
+      </c>
+      <c r="O30" s="105"/>
+    </row>
+    <row r="31" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A31" s="97"/>
+      <c r="B31" s="98" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="105"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" s="105"/>
+      <c r="K31" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L31" s="99"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="97"/>
+      <c r="O31" s="105"/>
+    </row>
+    <row r="32" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A32" s="97"/>
+      <c r="B32" s="98" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J32" s="105"/>
+      <c r="K32" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L32" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M32" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N32" s="97"/>
+      <c r="O32" s="105"/>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A33" s="97"/>
+      <c r="B33" s="98" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" s="105"/>
+      <c r="K33" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M33" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N33" s="97"/>
+      <c r="O33" s="105"/>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A34" s="97"/>
+      <c r="B34" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J34" s="105"/>
+      <c r="K34" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L34" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M34" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N34" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="O34" s="105"/>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A35" s="97"/>
+      <c r="B35" s="98" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J35" s="105"/>
+      <c r="K35" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L35" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M35" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N35" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="O35" s="105"/>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A36" s="97"/>
+      <c r="B36" s="98" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="105"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J36" s="105"/>
+      <c r="K36" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L36" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M36" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N36" s="97"/>
+      <c r="O36" s="105"/>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A37" s="97"/>
+      <c r="B37" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="105"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J37" s="105"/>
+      <c r="K37" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L37" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M37" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N37" s="97" t="s">
+        <v>139</v>
+      </c>
+      <c r="O37" s="105"/>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A38" s="97"/>
+      <c r="B38" s="98" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="106"/>
+      <c r="I38" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J38" s="105"/>
+      <c r="K38" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L38" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M38" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N38" s="97" t="s">
+        <v>141</v>
+      </c>
+      <c r="O38" s="105"/>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A39" s="97"/>
+      <c r="B39" s="98" t="s">
+        <v>243</v>
+      </c>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J39" s="105"/>
+      <c r="K39" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L39" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M39" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N39" s="97" t="s">
+        <v>142</v>
+      </c>
+      <c r="O39" s="105"/>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A40" s="97"/>
+      <c r="B40" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="99"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J40" s="104"/>
+      <c r="K40" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L40" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M40" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N40" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="O40" s="105"/>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A41" s="97"/>
+      <c r="B41" s="98" t="s">
+        <v>244</v>
+      </c>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J41" s="104"/>
+      <c r="K41" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L41" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M41" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N41" s="97" t="s">
+        <v>145</v>
+      </c>
+      <c r="O41" s="105"/>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A42" s="97"/>
+      <c r="B42" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="107"/>
+      <c r="I42" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J42" s="104"/>
+      <c r="K42" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L42" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M42" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N42" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="O42" s="105"/>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A43" s="97"/>
+      <c r="B43" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="99"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J43" s="104"/>
+      <c r="K43" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L43" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M43" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N43" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="O43" s="105"/>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A44" s="97"/>
+      <c r="B44" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="99"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J44" s="104"/>
+      <c r="K44" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L44" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M44" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N44" s="97" t="s">
+        <v>151</v>
+      </c>
+      <c r="O44" s="105"/>
+    </row>
+    <row r="45" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A45" s="97"/>
+      <c r="B45" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="107"/>
+      <c r="I45" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J45" s="104"/>
+      <c r="K45" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L45" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M45" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N45" s="97" t="s">
+        <v>153</v>
+      </c>
+      <c r="O45" s="105"/>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A46" s="97"/>
+      <c r="B46" s="98" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="99"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="107"/>
+      <c r="I46" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J46" s="104"/>
+      <c r="K46" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L46" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M46" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N46" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="O46" s="105"/>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A47" s="97"/>
+      <c r="B47" s="98" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="107"/>
+      <c r="I47" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J47" s="104"/>
+      <c r="K47" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L47" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M47" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N47" s="97" t="s">
+        <v>157</v>
+      </c>
+      <c r="O47" s="105"/>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A48" s="97"/>
+      <c r="B48" s="98" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="105"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="105"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J48" s="105"/>
+      <c r="K48" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L48" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M48" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N48" s="97"/>
+      <c r="O48" s="105"/>
+    </row>
+    <row r="49" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A49" s="97"/>
+      <c r="B49" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="108" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="105"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J49" s="105"/>
+      <c r="K49" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L49" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M49" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N49" s="97"/>
+      <c r="O49" s="105"/>
+    </row>
+    <row r="50" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A50" s="97"/>
+      <c r="B50" s="98" t="s">
+        <v>160</v>
+      </c>
+      <c r="C50" s="99"/>
+      <c r="D50" s="104"/>
+      <c r="E50" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="108"/>
+      <c r="G50" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="H50" s="107"/>
+      <c r="I50" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J50" s="104"/>
+      <c r="K50" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L50" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="M50" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N50" s="97"/>
+      <c r="O50" s="105"/>
+    </row>
+    <row r="51" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A51" s="97"/>
+      <c r="B51" s="98" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="104"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="108"/>
+      <c r="G51" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="107"/>
+      <c r="I51" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J51" s="104"/>
+      <c r="K51" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L51" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="M51" s="109"/>
+      <c r="N51" s="97"/>
+      <c r="O51" s="105"/>
+    </row>
+    <row r="52" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A52" s="97"/>
+      <c r="B52" s="98" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" s="104"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="108"/>
+      <c r="G52" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="H52" s="107"/>
+      <c r="I52" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J52" s="104"/>
+      <c r="K52" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L52" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="M52" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N52" s="87" t="s">
+        <v>163</v>
+      </c>
+      <c r="O52" s="105"/>
+    </row>
+    <row r="53" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A53" s="97"/>
+      <c r="B53" s="98" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" s="104"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="104"/>
+      <c r="H53" s="107"/>
+      <c r="I53" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J53" s="104"/>
+      <c r="K53" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L53" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="M53" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N53" s="97" t="s">
+        <v>165</v>
+      </c>
+      <c r="O53" s="105"/>
+    </row>
+    <row r="54" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A54" s="97"/>
+      <c r="B54" s="98" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="99"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="99"/>
+      <c r="G54" s="99"/>
+      <c r="H54" s="107"/>
+      <c r="I54" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J54" s="104"/>
+      <c r="K54" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="85" t="s">
+      <c r="L54" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="M54" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="N54" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="O54" s="105"/>
+    </row>
+    <row r="55" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A55" s="97"/>
+      <c r="B55" s="98" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="99"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="99"/>
+      <c r="H55" s="107"/>
+      <c r="I55" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J55" s="104"/>
+      <c r="K55" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L55" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="M55" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="N55" s="97" t="s">
+        <v>170</v>
+      </c>
+      <c r="O55" s="105"/>
+    </row>
+    <row r="56" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A56" s="97"/>
+      <c r="B56" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="99"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="99"/>
+      <c r="G56" s="99"/>
+      <c r="H56" s="107"/>
+      <c r="I56" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J56" s="104"/>
+      <c r="K56" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L56" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="M56" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N56" s="110"/>
+      <c r="O56" s="105"/>
+    </row>
+    <row r="57" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A57" s="97"/>
+      <c r="B57" s="98" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" s="99"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="99"/>
+      <c r="G57" s="99"/>
+      <c r="H57" s="107"/>
+      <c r="I57" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J57" s="104"/>
+      <c r="K57" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L57" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="M57" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N57" s="110"/>
+      <c r="O57" s="105"/>
+    </row>
+    <row r="58" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A58" s="97"/>
+      <c r="B58" s="98" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" s="99"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="107"/>
+      <c r="I58" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J58" s="104"/>
+      <c r="K58" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L58" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M58" s="107"/>
+      <c r="N58" s="97" t="s">
+        <v>174</v>
+      </c>
+      <c r="O58" s="105"/>
+    </row>
+    <row r="59" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A59" s="97"/>
+      <c r="B59" s="98" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" s="99"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="99"/>
+      <c r="G59" s="99"/>
+      <c r="H59" s="107"/>
+      <c r="I59" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J59" s="104"/>
+      <c r="K59" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L59" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M59" s="109"/>
+      <c r="N59" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="O59" s="105"/>
+    </row>
+    <row r="60" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A60" s="87"/>
+      <c r="B60" s="98" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" s="99"/>
+      <c r="D60" s="99"/>
+      <c r="E60" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="99"/>
+      <c r="G60" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J60" s="104"/>
+      <c r="K60" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L60" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="105"/>
-      <c r="K12" s="106" t="s">
+      <c r="M60" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="L12" s="107" t="s">
-        <v>78</v>
-      </c>
-      <c r="M12" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N12" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="O12" s="80"/>
-    </row>
-    <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="101"/>
-      <c r="B13" s="90" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103" t="s">
+      <c r="N60" s="97" t="s">
+        <v>178</v>
+      </c>
+      <c r="O60" s="105"/>
+    </row>
+    <row r="61" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A61" s="87"/>
+      <c r="B61" s="98" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" s="99"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="103"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="103" t="s">
+      <c r="F61" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="99"/>
+      <c r="H61" s="107"/>
+      <c r="I61" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J61" s="104"/>
+      <c r="K61" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L61" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="M61" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N61" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="O61" s="105"/>
+    </row>
+    <row r="62" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A62" s="97"/>
+      <c r="B62" s="98" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="99"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H62" s="107"/>
+      <c r="I62" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="J62" s="111" t="s">
+        <v>182</v>
+      </c>
+      <c r="K62" s="99"/>
+      <c r="L62" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="M62" s="106"/>
+      <c r="N62" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="O62" s="105"/>
+    </row>
+    <row r="63" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A63" s="97"/>
+      <c r="B63" s="98" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" s="105"/>
+      <c r="D63" s="105"/>
+      <c r="E63" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="105"/>
+      <c r="G63" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="H63" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="104"/>
-      <c r="I13" s="85" t="s">
+      <c r="I63" s="99" t="s">
+        <v>185</v>
+      </c>
+      <c r="J63" s="105"/>
+      <c r="K63" s="108" t="s">
+        <v>75</v>
+      </c>
+      <c r="L63" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="80"/>
-      <c r="K13" s="106" t="s">
+      <c r="M63" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="L13" s="106" t="s">
-        <v>82</v>
-      </c>
-      <c r="M13" s="97" t="s">
-        <v>83</v>
-      </c>
-      <c r="N13" s="100" t="s">
-        <v>84</v>
-      </c>
-      <c r="O13" s="80"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="101"/>
-      <c r="B14" s="90" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80" t="s">
+      <c r="N63" s="112" t="s">
+        <v>186</v>
+      </c>
+      <c r="O63" s="105"/>
+    </row>
+    <row r="64" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A64" s="97"/>
+      <c r="B64" s="98" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="99"/>
+      <c r="D64" s="99"/>
+      <c r="E64" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="103" t="s">
+      <c r="F64" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="80"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="85" t="s">
+      <c r="G64" s="99"/>
+      <c r="H64" s="107"/>
+      <c r="I64" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J64" s="104"/>
+      <c r="K64" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L64" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="80"/>
-      <c r="K14" s="85" t="s">
+      <c r="M64" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="106" t="s">
-        <v>82</v>
-      </c>
-      <c r="M14" s="97" t="s">
-        <v>86</v>
-      </c>
-      <c r="N14" s="100" t="s">
-        <v>87</v>
-      </c>
-      <c r="O14" s="80"/>
-    </row>
-    <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="101"/>
-      <c r="B15" s="90" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92" t="s">
+      <c r="N64" s="97" t="s">
+        <v>188</v>
+      </c>
+      <c r="O64" s="105"/>
+    </row>
+    <row r="65" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A65" s="97"/>
+      <c r="B65" s="98" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" s="99"/>
+      <c r="D65" s="99"/>
+      <c r="E65" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="85" t="s">
+      <c r="F65" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="85" t="s">
+      <c r="G65" s="99"/>
+      <c r="H65" s="107"/>
+      <c r="I65" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J65" s="104"/>
+      <c r="K65" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L65" s="99" t="s">
         <v>76</v>
       </c>
-      <c r="J15" s="105"/>
-      <c r="K15" s="106" t="s">
+      <c r="M65" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N65" s="97" t="s">
+        <v>190</v>
+      </c>
+      <c r="O65" s="105"/>
+    </row>
+    <row r="66" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A66" s="97"/>
+      <c r="B66" s="98" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" s="99"/>
+      <c r="D66" s="99"/>
+      <c r="E66" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="99"/>
+      <c r="G66" s="99"/>
+      <c r="H66" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J66" s="104"/>
+      <c r="K66" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L66" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="M66" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N66" s="97" t="s">
+        <v>192</v>
+      </c>
+      <c r="O66" s="105"/>
+    </row>
+    <row r="67" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A67" s="97"/>
+      <c r="B67" s="98" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" s="105"/>
+      <c r="D67" s="105"/>
+      <c r="E67" s="105" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="105"/>
+      <c r="G67" s="105"/>
+      <c r="H67" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J67" s="105"/>
+      <c r="K67" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L67" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="M67" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N67" s="97" t="s">
+        <v>194</v>
+      </c>
+      <c r="O67" s="105"/>
+    </row>
+    <row r="68" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A68" s="97"/>
+      <c r="B68" s="119" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" s="99"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="99"/>
+      <c r="G68" s="99"/>
+      <c r="H68" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J68" s="104"/>
+      <c r="K68" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L68" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="M68" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N68" s="97" t="s">
+        <v>196</v>
+      </c>
+      <c r="O68" s="105"/>
+    </row>
+    <row r="69" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A69" s="97"/>
+      <c r="B69" s="98" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" s="99"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="99"/>
+      <c r="H69" s="107"/>
+      <c r="I69" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J69" s="104"/>
+      <c r="K69" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L69" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M69" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N69" s="110"/>
+      <c r="O69" s="105"/>
+    </row>
+    <row r="70" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A70" s="97"/>
+      <c r="B70" s="98" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="99"/>
+      <c r="D70" s="99"/>
+      <c r="E70" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="99"/>
+      <c r="G70" s="99"/>
+      <c r="H70" s="107"/>
+      <c r="I70" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J70" s="104"/>
+      <c r="K70" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L70" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="M70" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N70" s="87" t="s">
+        <v>199</v>
+      </c>
+      <c r="O70" s="105"/>
+    </row>
+    <row r="71" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A71" s="97"/>
+      <c r="B71" s="98" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="99"/>
+      <c r="D71" s="99"/>
+      <c r="E71" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" s="99"/>
+      <c r="G71" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="107"/>
+      <c r="I71" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J71" s="104"/>
+      <c r="K71" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L71" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="M71" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="N71" s="97" t="s">
+        <v>202</v>
+      </c>
+      <c r="O71" s="105"/>
+    </row>
+    <row r="72" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A72" s="97"/>
+      <c r="B72" s="98" t="s">
+        <v>203</v>
+      </c>
+      <c r="C72" s="99"/>
+      <c r="D72" s="99"/>
+      <c r="E72" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="99"/>
+      <c r="G72" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H72" s="107"/>
+      <c r="I72" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J72" s="104"/>
+      <c r="K72" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L72" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="M72" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="N72" s="97" t="s">
+        <v>204</v>
+      </c>
+      <c r="O72" s="105"/>
+    </row>
+    <row r="73" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A73" s="87"/>
+      <c r="B73" s="98" t="s">
+        <v>205</v>
+      </c>
+      <c r="C73" s="99"/>
+      <c r="D73" s="99"/>
+      <c r="E73" s="99"/>
+      <c r="F73" s="99"/>
+      <c r="G73" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="113"/>
+      <c r="I73" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J73" s="104"/>
+      <c r="K73" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L73" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="M73" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="N73" s="97" t="s">
+        <v>206</v>
+      </c>
+      <c r="O73" s="105"/>
+    </row>
+    <row r="74" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A74" s="97"/>
+      <c r="B74" s="98" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" s="99"/>
+      <c r="D74" s="99"/>
+      <c r="E74" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" s="99"/>
+      <c r="G74" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="107"/>
+      <c r="I74" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J74" s="104"/>
+      <c r="K74" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L74" s="99" t="s">
+        <v>208</v>
+      </c>
+      <c r="M74" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="N74" s="97" t="s">
+        <v>209</v>
+      </c>
+      <c r="O74" s="105"/>
+    </row>
+    <row r="75" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A75" s="97"/>
+      <c r="B75" s="98" t="s">
+        <v>210</v>
+      </c>
+      <c r="C75" s="99"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" s="99"/>
+      <c r="G75" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H75" s="107"/>
+      <c r="I75" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J75" s="104"/>
+      <c r="K75" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L75" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M75" s="94" t="s">
+        <v>167</v>
+      </c>
+      <c r="N75" s="97" t="s">
+        <v>211</v>
+      </c>
+      <c r="O75" s="105"/>
+    </row>
+    <row r="76" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A76" s="97"/>
+      <c r="B76" s="98" t="s">
+        <v>212</v>
+      </c>
+      <c r="C76" s="99"/>
+      <c r="D76" s="99"/>
+      <c r="E76" s="99"/>
+      <c r="F76" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="99"/>
+      <c r="H76" s="107"/>
+      <c r="I76" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J76" s="104"/>
+      <c r="K76" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L76" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="M76" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N76" s="97" t="s">
+        <v>213</v>
+      </c>
+      <c r="O76" s="105"/>
+    </row>
+    <row r="77" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A77" s="97"/>
+      <c r="B77" s="98" t="s">
+        <v>214</v>
+      </c>
+      <c r="C77" s="99"/>
+      <c r="D77" s="99"/>
+      <c r="E77" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="99"/>
+      <c r="G77" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H77" s="113" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J77" s="104"/>
+      <c r="K77" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L77" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="M77" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N77" s="97" t="s">
+        <v>192</v>
+      </c>
+      <c r="O77" s="105"/>
+    </row>
+    <row r="78" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A78" s="97"/>
+      <c r="B78" s="98" t="s">
+        <v>215</v>
+      </c>
+      <c r="C78" s="99"/>
+      <c r="D78" s="99"/>
+      <c r="E78" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" s="107"/>
+      <c r="I78" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J78" s="104"/>
+      <c r="K78" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L78" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M78" s="106"/>
+      <c r="N78" s="97" t="s">
+        <v>216</v>
+      </c>
+      <c r="O78" s="105"/>
+    </row>
+    <row r="79" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A79" s="97"/>
+      <c r="B79" s="98" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="99"/>
+      <c r="D79" s="99"/>
+      <c r="E79" s="99"/>
+      <c r="F79" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" s="99"/>
+      <c r="H79" s="107"/>
+      <c r="I79" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J79" s="104"/>
+      <c r="K79" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L79" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="M79" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N79" s="87" t="s">
+        <v>218</v>
+      </c>
+      <c r="O79" s="105"/>
+    </row>
+    <row r="80" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A80" s="97"/>
+      <c r="B80" s="98" t="s">
+        <v>219</v>
+      </c>
+      <c r="C80" s="99"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="99"/>
+      <c r="G80" s="99"/>
+      <c r="H80" s="107"/>
+      <c r="I80" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J80" s="104"/>
+      <c r="K80" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L80" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="M80" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N80" s="97" t="s">
+        <v>220</v>
+      </c>
+      <c r="O80" s="105"/>
+    </row>
+    <row r="81" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A81" s="97"/>
+      <c r="B81" s="98" t="s">
+        <v>221</v>
+      </c>
+      <c r="C81" s="99"/>
+      <c r="D81" s="99"/>
+      <c r="E81" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="99"/>
+      <c r="G81" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H81" s="107"/>
+      <c r="I81" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J81" s="104"/>
+      <c r="K81" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L81" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M81" s="94"/>
+      <c r="N81" s="97"/>
+      <c r="O81" s="105"/>
+    </row>
+    <row r="82" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A82" s="97"/>
+      <c r="B82" s="98" t="s">
+        <v>222</v>
+      </c>
+      <c r="C82" s="99"/>
+      <c r="D82" s="99"/>
+      <c r="E82" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" s="107"/>
+      <c r="I82" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J82" s="104"/>
+      <c r="K82" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L82" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="M82" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N82" s="97" t="s">
+        <v>223</v>
+      </c>
+      <c r="O82" s="105"/>
+    </row>
+    <row r="83" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A83" s="97"/>
+      <c r="B83" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C83" s="99"/>
+      <c r="D83" s="99"/>
+      <c r="E83" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" s="107"/>
+      <c r="I83" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J83" s="104"/>
+      <c r="K83" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L83" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="M83" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N83" s="97" t="s">
+        <v>225</v>
+      </c>
+      <c r="O83" s="105"/>
+    </row>
+    <row r="84" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A84" s="97"/>
+      <c r="B84" s="98" t="s">
+        <v>226</v>
+      </c>
+      <c r="C84" s="99"/>
+      <c r="D84" s="99"/>
+      <c r="E84" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" s="99"/>
+      <c r="H84" s="107"/>
+      <c r="I84" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J84" s="104"/>
+      <c r="K84" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L84" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="M84" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N84" s="97"/>
+      <c r="O84" s="105"/>
+    </row>
+    <row r="85" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A85" s="97"/>
+      <c r="B85" s="98" t="s">
+        <v>227</v>
+      </c>
+      <c r="C85" s="99"/>
+      <c r="D85" s="99"/>
+      <c r="E85" s="99"/>
+      <c r="F85" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" s="99"/>
+      <c r="H85" s="107"/>
+      <c r="I85" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J85" s="104"/>
+      <c r="K85" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L85" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="M85" s="94" t="s">
+        <v>228</v>
+      </c>
+      <c r="N85" s="97"/>
+      <c r="O85" s="105"/>
+    </row>
+    <row r="86" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A86" s="97"/>
+      <c r="B86" s="98" t="s">
+        <v>229</v>
+      </c>
+      <c r="C86" s="99"/>
+      <c r="D86" s="99"/>
+      <c r="E86" s="99"/>
+      <c r="F86" s="99"/>
+      <c r="G86" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H86" s="107"/>
+      <c r="I86" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J86" s="104"/>
+      <c r="K86" s="99" t="s">
+        <v>230</v>
+      </c>
+      <c r="L86" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="M86" s="94" t="s">
+        <v>231</v>
+      </c>
+      <c r="N86" s="97" t="s">
+        <v>232</v>
+      </c>
+      <c r="O86" s="105"/>
+    </row>
+    <row r="87" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A87" s="97"/>
+      <c r="B87" s="98" t="s">
+        <v>233</v>
+      </c>
+      <c r="C87" s="99"/>
+      <c r="D87" s="99"/>
+      <c r="E87" s="99"/>
+      <c r="F87" s="99"/>
+      <c r="G87" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87" s="107"/>
+      <c r="I87" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J87" s="104"/>
+      <c r="K87" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="L87" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="M87" s="94" t="s">
+        <v>234</v>
+      </c>
+      <c r="N87" s="97"/>
+      <c r="O87" s="105"/>
+    </row>
+    <row r="88" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A88" s="97"/>
+      <c r="B88" s="98" t="s">
+        <v>235</v>
+      </c>
+      <c r="C88" s="99"/>
+      <c r="D88" s="99"/>
+      <c r="E88" s="99"/>
+      <c r="F88" s="99"/>
+      <c r="G88" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H88" s="107"/>
+      <c r="I88" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J88" s="104"/>
+      <c r="K88" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="L88" s="99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M88" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N88" s="97"/>
+      <c r="O88" s="105"/>
+    </row>
+    <row r="89" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A89" s="97"/>
+      <c r="B89" s="98" t="s">
+        <v>236</v>
+      </c>
+      <c r="C89" s="99"/>
+      <c r="D89" s="99"/>
+      <c r="E89" s="99"/>
+      <c r="F89" s="99"/>
+      <c r="G89" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="H89" s="107"/>
+      <c r="I89" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J89" s="104"/>
+      <c r="K89" s="99" t="s">
+        <v>230</v>
+      </c>
+      <c r="L89" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="M89" s="94" t="s">
+        <v>237</v>
+      </c>
+      <c r="N89" s="97"/>
+      <c r="O89" s="105"/>
+    </row>
+    <row r="90" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A90" s="97"/>
+      <c r="B90" s="98" t="s">
+        <v>238</v>
+      </c>
+      <c r="C90" s="105"/>
+      <c r="D90" s="105"/>
+      <c r="E90" s="105"/>
+      <c r="F90" s="105"/>
+      <c r="G90" s="105"/>
+      <c r="H90" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="I90" s="99" t="s">
+        <v>74</v>
+      </c>
+      <c r="J90" s="105"/>
+      <c r="K90" s="108" t="s">
+        <v>75</v>
+      </c>
+      <c r="L90" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="M90" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="N90" s="97" t="s">
+        <v>239</v>
+      </c>
+      <c r="O90" s="105"/>
+    </row>
+    <row r="91" spans="1:15" ht="15.75" customHeight="1">
+      <c r="B91" s="114"/>
+      <c r="C91" s="114"/>
+      <c r="D91" s="115"/>
+      <c r="E91" s="115"/>
+      <c r="F91" s="115"/>
+      <c r="G91" s="115"/>
+      <c r="H91" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="I91" s="117">
         <v>89</v>
       </c>
-      <c r="L15" s="106" t="s">
-        <v>82</v>
-      </c>
-      <c r="M15" s="97" t="s">
-        <v>90</v>
-      </c>
-      <c r="N15" s="100" t="s">
-        <v>91</v>
-      </c>
-      <c r="O15" s="80"/>
-    </row>
-    <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="101"/>
-      <c r="B16" s="90" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16" s="105"/>
-      <c r="K16" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="M16" s="97" t="s">
-        <v>94</v>
-      </c>
-      <c r="N16" s="83" t="s">
-        <v>95</v>
-      </c>
-      <c r="O16" s="80"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="101"/>
-      <c r="B17" s="90" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" s="80"/>
-      <c r="K17" s="106" t="s">
-        <v>97</v>
-      </c>
-      <c r="L17" s="106" t="s">
-        <v>98</v>
-      </c>
-      <c r="M17" s="97" t="s">
-        <v>99</v>
-      </c>
-      <c r="N17" s="100" t="s">
-        <v>100</v>
-      </c>
-      <c r="O17" s="80"/>
-    </row>
-    <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="101"/>
-      <c r="B18" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="103"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="104"/>
-      <c r="I18" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J18" s="80"/>
-      <c r="K18" s="108" t="s">
-        <v>97</v>
-      </c>
-      <c r="L18" s="106" t="s">
-        <v>98</v>
-      </c>
-      <c r="M18" s="97" t="s">
-        <v>99</v>
-      </c>
-      <c r="N18" s="109" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="101"/>
-      <c r="B19" s="102" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="103"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="104"/>
-      <c r="I19" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J19" s="80"/>
-      <c r="K19" s="108" t="s">
-        <v>77</v>
-      </c>
-      <c r="L19" s="106" t="s">
-        <v>98</v>
-      </c>
-      <c r="M19" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="N19" s="101" t="s">
-        <v>105</v>
-      </c>
-      <c r="O19" s="80"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="101"/>
-      <c r="B20" s="102" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="84"/>
-      <c r="I20" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="110" t="s">
-        <v>107</v>
-      </c>
-      <c r="K20" s="92"/>
-      <c r="L20" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M20" s="97"/>
-      <c r="N20" s="100" t="s">
-        <v>108</v>
-      </c>
-      <c r="O20" s="80"/>
-      <c r="W20" s="83"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="101"/>
-      <c r="B21" s="102" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="84"/>
-      <c r="I21" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" s="110" t="s">
-        <v>110</v>
-      </c>
-      <c r="K21" s="92"/>
-      <c r="L21" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M21" s="84"/>
-      <c r="N21" s="100" t="s">
-        <v>111</v>
-      </c>
-      <c r="O21" s="80"/>
-      <c r="Q21" s="111"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="101"/>
-      <c r="B22" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="104"/>
-      <c r="I22" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="J22" s="110" t="s">
-        <v>113</v>
-      </c>
-      <c r="K22" s="80"/>
-      <c r="L22" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M22" s="104"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="80"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="101"/>
-      <c r="B23" s="102" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="80"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="104" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J23" s="103"/>
-      <c r="K23" s="108" t="s">
-        <v>77</v>
-      </c>
-      <c r="L23" s="108" t="s">
-        <v>78</v>
-      </c>
-      <c r="M23" s="112"/>
-      <c r="N23" s="100" t="s">
-        <v>115</v>
-      </c>
-      <c r="O23" s="80"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="101"/>
-      <c r="B24" s="90" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="104"/>
-      <c r="I24" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="110" t="s">
-        <v>117</v>
-      </c>
-      <c r="K24" s="80"/>
-      <c r="L24" s="108" t="s">
-        <v>56</v>
-      </c>
-      <c r="M24" s="104"/>
-      <c r="N24" s="100" t="s">
-        <v>118</v>
-      </c>
-      <c r="O24" s="80"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="101"/>
-      <c r="B25" s="90" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="84"/>
-      <c r="I25" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J25" s="105"/>
-      <c r="K25" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L25" s="106" t="s">
-        <v>120</v>
-      </c>
-      <c r="M25" s="84"/>
-      <c r="N25" s="100" t="s">
-        <v>121</v>
-      </c>
-      <c r="O25" s="80"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="101"/>
-      <c r="B26" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="92"/>
-      <c r="G26" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="84"/>
-      <c r="I26" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="J26" s="110" t="s">
-        <v>123</v>
-      </c>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M26" s="84"/>
-      <c r="N26" s="100" t="s">
-        <v>124</v>
-      </c>
-      <c r="O26" s="80"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="101"/>
-      <c r="B27" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="104"/>
-      <c r="I27" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="J27" s="110" t="s">
-        <v>126</v>
-      </c>
-      <c r="K27" s="80"/>
-      <c r="L27" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="112"/>
-      <c r="N27" s="100" t="s">
-        <v>127</v>
-      </c>
-      <c r="O27" s="80"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="101"/>
-      <c r="B28" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="85"/>
-      <c r="G28" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" s="84"/>
-      <c r="I28" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="J28" s="110" t="s">
-        <v>129</v>
-      </c>
-      <c r="K28" s="92"/>
-      <c r="L28" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M28" s="113"/>
-      <c r="N28" s="100" t="s">
-        <v>130</v>
-      </c>
-      <c r="O28" s="80"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="101"/>
-      <c r="B29" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="92"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="114" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J29" s="115"/>
-      <c r="K29" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L29" s="106" t="s">
-        <v>98</v>
-      </c>
-      <c r="M29" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N29" s="100" t="s">
-        <v>132</v>
-      </c>
-      <c r="O29" s="80"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="101"/>
-      <c r="B30" s="102" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="116" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="103"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J30" s="80"/>
-      <c r="K30" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L30" s="106"/>
-      <c r="M30" s="97"/>
-      <c r="N30" s="100"/>
-      <c r="O30" s="80"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="101"/>
-      <c r="B31" s="102" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="104" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J31" s="80"/>
-      <c r="K31" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L31" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M31" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N31" s="100"/>
-      <c r="O31" s="80"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="101"/>
-      <c r="B32" s="102" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="104" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J32" s="103"/>
-      <c r="K32" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L32" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M32" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N32" s="100"/>
-      <c r="O32" s="80"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="101"/>
-      <c r="B33" s="102" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="104" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J33" s="80"/>
-      <c r="K33" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L33" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M33" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N33" s="100" t="s">
-        <v>137</v>
-      </c>
-      <c r="O33" s="80"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="101"/>
-      <c r="B34" s="102" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="104" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J34" s="80"/>
-      <c r="K34" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L34" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M34" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N34" s="100" t="s">
-        <v>137</v>
-      </c>
-      <c r="O34" s="80"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="101"/>
-      <c r="B35" s="102" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="80"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J35" s="80"/>
-      <c r="K35" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L35" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M35" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N35" s="100"/>
-      <c r="O35" s="80"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="101"/>
-      <c r="B36" s="102" t="s">
-        <v>140</v>
-      </c>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="80"/>
-      <c r="H36" s="117"/>
-      <c r="I36" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J36" s="80"/>
-      <c r="K36" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L36" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M36" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N36" s="100" t="s">
-        <v>141</v>
-      </c>
-      <c r="O36" s="80"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="101"/>
-      <c r="B37" s="102" t="s">
-        <v>142</v>
-      </c>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="104"/>
-      <c r="I37" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J37" s="80"/>
-      <c r="K37" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L37" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M37" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N37" s="100" t="s">
-        <v>143</v>
-      </c>
-      <c r="O37" s="80"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="101"/>
-      <c r="B38" s="102" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="118"/>
-      <c r="I38" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J38" s="80"/>
-      <c r="K38" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L38" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M38" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N38" s="100" t="s">
-        <v>145</v>
-      </c>
-      <c r="O38" s="80"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="101"/>
-      <c r="B39" s="102" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" s="92"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J39" s="105"/>
-      <c r="K39" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L39" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M39" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N39" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="O39" s="80"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="101"/>
-      <c r="B40" s="102" t="s">
-        <v>148</v>
-      </c>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J40" s="105"/>
-      <c r="K40" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L40" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M40" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N40" s="101" t="s">
-        <v>149</v>
-      </c>
-      <c r="O40" s="80"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="101"/>
-      <c r="B41" s="102" t="s">
-        <v>150</v>
-      </c>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" s="85"/>
-      <c r="G41" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" s="84"/>
-      <c r="I41" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J41" s="105"/>
-      <c r="K41" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L41" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M41" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N41" s="100" t="s">
-        <v>151</v>
-      </c>
-      <c r="O41" s="80"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="101"/>
-      <c r="B42" s="102" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" s="92"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J42" s="105"/>
-      <c r="K42" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L42" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M42" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N42" s="100" t="s">
-        <v>153</v>
-      </c>
-      <c r="O42" s="80"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="101"/>
-      <c r="B43" s="102" t="s">
-        <v>154</v>
-      </c>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" s="85"/>
-      <c r="H43" s="118"/>
-      <c r="I43" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J43" s="105"/>
-      <c r="K43" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L43" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M43" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N43" s="100" t="s">
-        <v>155</v>
-      </c>
-      <c r="O43" s="80"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="101"/>
-      <c r="B44" s="102" t="s">
-        <v>156</v>
-      </c>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G44" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="84"/>
-      <c r="I44" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J44" s="105"/>
-      <c r="K44" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L44" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M44" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N44" s="100" t="s">
-        <v>157</v>
-      </c>
-      <c r="O44" s="80"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="101"/>
-      <c r="B45" s="102" t="s">
-        <v>158</v>
-      </c>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="84"/>
-      <c r="I45" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J45" s="105"/>
-      <c r="K45" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L45" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M45" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N45" s="100" t="s">
-        <v>159</v>
-      </c>
-      <c r="O45" s="80"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="101"/>
-      <c r="B46" s="102" t="s">
-        <v>160</v>
-      </c>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="84"/>
-      <c r="I46" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J46" s="105"/>
-      <c r="K46" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L46" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M46" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N46" s="100" t="s">
-        <v>161</v>
-      </c>
-      <c r="O46" s="80"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="101"/>
-      <c r="B47" s="102" t="s">
-        <v>162</v>
-      </c>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="108" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" s="103"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J47" s="80"/>
-      <c r="K47" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L47" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M47" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N47" s="100"/>
-      <c r="O47" s="80"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="101"/>
-      <c r="B48" s="102" t="s">
-        <v>163</v>
-      </c>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="108" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" s="80"/>
-      <c r="H48" s="104"/>
-      <c r="I48" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J48" s="80"/>
-      <c r="K48" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L48" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M48" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N48" s="100"/>
-      <c r="O48" s="80"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="101"/>
-      <c r="B49" s="102" t="s">
-        <v>164</v>
-      </c>
-      <c r="C49" s="92"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="115" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="119"/>
-      <c r="G49" s="105" t="s">
-        <v>20</v>
-      </c>
-      <c r="H49" s="118"/>
-      <c r="I49" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J49" s="105"/>
-      <c r="K49" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="L49" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="M49" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N49" s="100"/>
-      <c r="O49" s="80"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="101"/>
-      <c r="B50" s="102" t="s">
-        <v>165</v>
-      </c>
-      <c r="C50" s="105"/>
-      <c r="D50" s="105"/>
-      <c r="E50" s="115" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="119"/>
-      <c r="G50" s="115" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" s="84"/>
-      <c r="I50" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J50" s="105"/>
-      <c r="K50" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="L50" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="M50" s="120"/>
-      <c r="N50" s="100"/>
-      <c r="O50" s="80"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="101"/>
-      <c r="B51" s="102" t="s">
-        <v>166</v>
-      </c>
-      <c r="C51" s="105"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="115" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="119"/>
-      <c r="G51" s="105" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="84"/>
-      <c r="I51" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J51" s="105"/>
-      <c r="K51" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="L51" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="M51" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N51" s="88" t="s">
-        <v>167</v>
-      </c>
-      <c r="O51" s="80"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="101"/>
-      <c r="B52" s="102" t="s">
-        <v>168</v>
-      </c>
-      <c r="C52" s="105"/>
-      <c r="D52" s="105"/>
-      <c r="E52" s="115"/>
-      <c r="F52" s="105" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" s="105"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J52" s="105"/>
-      <c r="K52" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="L52" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="M52" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N52" s="101" t="s">
-        <v>169</v>
-      </c>
-      <c r="O52" s="80"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="101"/>
-      <c r="B53" s="102" t="s">
-        <v>170</v>
-      </c>
-      <c r="C53" s="92"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" s="92"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J53" s="115"/>
-      <c r="K53" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="L53" s="106" t="s">
-        <v>98</v>
-      </c>
-      <c r="M53" s="97" t="s">
-        <v>171</v>
-      </c>
-      <c r="N53" s="100" t="s">
-        <v>172</v>
-      </c>
-      <c r="O53" s="80"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="101"/>
-      <c r="B54" s="102" t="s">
-        <v>173</v>
-      </c>
-      <c r="C54" s="92"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" s="92"/>
-      <c r="H54" s="84"/>
-      <c r="I54" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J54" s="105"/>
-      <c r="K54" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="L54" s="106" t="s">
-        <v>98</v>
-      </c>
-      <c r="M54" s="97" t="s">
-        <v>171</v>
-      </c>
-      <c r="N54" s="100" t="s">
-        <v>174</v>
-      </c>
-      <c r="O54" s="80"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="101"/>
-      <c r="B55" s="102" t="s">
-        <v>175</v>
-      </c>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="92"/>
-      <c r="G55" s="92"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J55" s="105"/>
-      <c r="K55" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="L55" s="106" t="s">
-        <v>98</v>
-      </c>
-      <c r="M55" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N55" s="121"/>
-      <c r="O55" s="80"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="101"/>
-      <c r="B56" s="102" t="s">
-        <v>176</v>
-      </c>
-      <c r="C56" s="92"/>
-      <c r="D56" s="92"/>
-      <c r="E56" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="92"/>
-      <c r="G56" s="92"/>
-      <c r="H56" s="84"/>
-      <c r="I56" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J56" s="105"/>
-      <c r="K56" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="L56" s="106" t="s">
-        <v>98</v>
-      </c>
-      <c r="M56" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N56" s="121"/>
-      <c r="O56" s="80"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="101"/>
-      <c r="B57" s="102" t="s">
-        <v>177</v>
-      </c>
-      <c r="C57" s="92"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="92" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="85"/>
-      <c r="G57" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" s="84"/>
-      <c r="I57" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J57" s="105"/>
-      <c r="K57" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L57" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M57" s="84"/>
-      <c r="N57" s="100" t="s">
-        <v>178</v>
-      </c>
-      <c r="O57" s="80"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="101"/>
-      <c r="B58" s="102" t="s">
-        <v>179</v>
-      </c>
-      <c r="C58" s="92"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="92" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="92"/>
-      <c r="G58" s="92"/>
-      <c r="H58" s="84"/>
-      <c r="I58" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J58" s="105"/>
-      <c r="K58" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L58" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M58" s="87"/>
-      <c r="N58" s="100" t="s">
-        <v>180</v>
-      </c>
-      <c r="O58" s="80"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="88"/>
-      <c r="B59" s="102" t="s">
-        <v>181</v>
-      </c>
-      <c r="C59" s="92"/>
-      <c r="D59" s="92"/>
-      <c r="E59" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="92"/>
-      <c r="G59" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59" s="114" t="s">
-        <v>21</v>
-      </c>
-      <c r="I59" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J59" s="105"/>
-      <c r="K59" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="L59" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="M59" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N59" s="100" t="s">
-        <v>182</v>
-      </c>
-      <c r="O59" s="80"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="88"/>
-      <c r="B60" s="102" t="s">
-        <v>183</v>
-      </c>
-      <c r="C60" s="92"/>
-      <c r="D60" s="92"/>
-      <c r="E60" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" s="92"/>
-      <c r="H60" s="84"/>
-      <c r="I60" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J60" s="105"/>
-      <c r="K60" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="L60" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="M60" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N60" s="100" t="s">
-        <v>184</v>
-      </c>
-      <c r="O60" s="80"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="101"/>
-      <c r="B61" s="102" t="s">
-        <v>185</v>
-      </c>
-      <c r="C61" s="92"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" s="85"/>
-      <c r="G61" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61" s="84"/>
-      <c r="I61" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="J61" s="122" t="s">
-        <v>186</v>
-      </c>
-      <c r="K61" s="106"/>
-      <c r="L61" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="M61" s="113"/>
-      <c r="N61" s="100" t="s">
-        <v>187</v>
-      </c>
-      <c r="O61" s="80"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="101"/>
-      <c r="B62" s="102" t="s">
-        <v>188</v>
-      </c>
-      <c r="C62" s="80"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="80"/>
-      <c r="G62" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62" s="114" t="s">
-        <v>21</v>
-      </c>
-      <c r="I62" s="85" t="s">
-        <v>189</v>
-      </c>
-      <c r="J62" s="80"/>
-      <c r="K62" s="108" t="s">
-        <v>77</v>
-      </c>
-      <c r="L62" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="M62" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N62" s="123" t="s">
-        <v>190</v>
-      </c>
-      <c r="O62" s="80"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="101"/>
-      <c r="B63" s="102" t="s">
-        <v>191</v>
-      </c>
-      <c r="C63" s="92"/>
-      <c r="D63" s="92"/>
-      <c r="E63" s="92" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" s="85"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J63" s="105"/>
-      <c r="K63" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="L63" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="M63" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N63" s="100" t="s">
-        <v>192</v>
-      </c>
-      <c r="O63" s="80"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="101"/>
-      <c r="B64" s="102" t="s">
-        <v>193</v>
-      </c>
-      <c r="C64" s="92"/>
-      <c r="D64" s="92"/>
-      <c r="E64" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="85" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" s="85"/>
-      <c r="H64" s="84"/>
-      <c r="I64" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J64" s="105"/>
-      <c r="K64" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="L64" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="M64" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N64" s="100" t="s">
-        <v>194</v>
-      </c>
-      <c r="O64" s="80"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="101"/>
-      <c r="B65" s="102" t="s">
-        <v>195</v>
-      </c>
-      <c r="C65" s="92"/>
-      <c r="D65" s="92"/>
-      <c r="E65" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="85"/>
-      <c r="G65" s="85"/>
-      <c r="H65" s="114" t="s">
-        <v>21</v>
-      </c>
-      <c r="I65" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J65" s="105"/>
-      <c r="K65" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="L65" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="M65" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N65" s="100" t="s">
-        <v>196</v>
-      </c>
-      <c r="O65" s="80"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="101"/>
-      <c r="B66" s="102" t="s">
-        <v>197</v>
-      </c>
-      <c r="C66" s="80"/>
-      <c r="D66" s="103"/>
-      <c r="E66" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="80"/>
-      <c r="G66" s="103"/>
-      <c r="H66" s="104" t="s">
-        <v>21</v>
-      </c>
-      <c r="I66" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J66" s="103"/>
-      <c r="K66" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="L66" s="108" t="s">
-        <v>98</v>
-      </c>
-      <c r="M66" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N66" s="100" t="s">
-        <v>198</v>
-      </c>
-      <c r="O66" s="80"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="101"/>
-      <c r="B67" s="102" t="s">
-        <v>199</v>
-      </c>
-      <c r="C67" s="92"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="92"/>
-      <c r="G67" s="85"/>
-      <c r="H67" s="124" t="s">
-        <v>21</v>
-      </c>
-      <c r="I67" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J67" s="105"/>
-      <c r="K67" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="L67" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="M67" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N67" s="100" t="s">
-        <v>200</v>
-      </c>
-      <c r="O67" s="80"/>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="101"/>
-      <c r="B68" s="102" t="s">
-        <v>201</v>
-      </c>
-      <c r="C68" s="92"/>
-      <c r="D68" s="92"/>
-      <c r="E68" s="92" t="s">
-        <v>18</v>
-      </c>
-      <c r="F68" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" s="85"/>
-      <c r="H68" s="84"/>
-      <c r="I68" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J68" s="105"/>
-      <c r="K68" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L68" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M68" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N68" s="121"/>
-      <c r="O68" s="80"/>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="101"/>
-      <c r="B69" s="102" t="s">
-        <v>202</v>
-      </c>
-      <c r="C69" s="92"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="92"/>
-      <c r="G69" s="92"/>
-      <c r="H69" s="84"/>
-      <c r="I69" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J69" s="105"/>
-      <c r="K69" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L69" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="M69" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N69" s="88" t="s">
-        <v>203</v>
-      </c>
-      <c r="O69" s="80"/>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="101"/>
-      <c r="B70" s="102" t="s">
-        <v>204</v>
-      </c>
-      <c r="C70" s="92"/>
-      <c r="D70" s="92"/>
-      <c r="E70" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" s="92"/>
-      <c r="G70" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" s="84"/>
-      <c r="I70" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J70" s="105"/>
-      <c r="K70" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="L70" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="M70" s="97" t="s">
-        <v>205</v>
-      </c>
-      <c r="N70" s="100" t="s">
-        <v>206</v>
-      </c>
-      <c r="O70" s="80"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="101"/>
-      <c r="B71" s="102" t="s">
-        <v>207</v>
-      </c>
-      <c r="C71" s="85"/>
-      <c r="D71" s="85"/>
-      <c r="E71" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" s="92"/>
-      <c r="G71" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="84"/>
-      <c r="I71" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J71" s="105"/>
-      <c r="K71" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="L71" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="M71" s="97" t="s">
-        <v>171</v>
-      </c>
-      <c r="N71" s="100" t="s">
-        <v>208</v>
-      </c>
-      <c r="O71" s="80"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="88"/>
-      <c r="B72" s="102" t="s">
-        <v>209</v>
-      </c>
-      <c r="C72" s="92"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="85"/>
-      <c r="F72" s="92"/>
-      <c r="G72" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" s="114"/>
-      <c r="I72" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J72" s="105"/>
-      <c r="K72" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="L72" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="M72" s="97" t="s">
-        <v>171</v>
-      </c>
-      <c r="N72" s="100" t="s">
-        <v>210</v>
-      </c>
-      <c r="O72" s="80"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="101"/>
-      <c r="B73" s="102" t="s">
-        <v>211</v>
-      </c>
-      <c r="C73" s="92"/>
-      <c r="D73" s="92"/>
-      <c r="E73" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" s="106"/>
-      <c r="G73" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="84"/>
-      <c r="I73" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J73" s="105"/>
-      <c r="K73" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L73" s="106" t="s">
-        <v>212</v>
-      </c>
-      <c r="M73" s="97" t="s">
-        <v>171</v>
-      </c>
-      <c r="N73" s="100" t="s">
-        <v>213</v>
-      </c>
-      <c r="O73" s="80"/>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="101"/>
-      <c r="B74" s="102" t="s">
-        <v>214</v>
-      </c>
-      <c r="C74" s="92"/>
-      <c r="D74" s="92"/>
-      <c r="E74" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F74" s="92"/>
-      <c r="G74" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="H74" s="84"/>
-      <c r="I74" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J74" s="115"/>
-      <c r="K74" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L74" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M74" s="97" t="s">
-        <v>171</v>
-      </c>
-      <c r="N74" s="100" t="s">
-        <v>215</v>
-      </c>
-      <c r="O74" s="80"/>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="101"/>
-      <c r="B75" s="102" t="s">
-        <v>216</v>
-      </c>
-      <c r="C75" s="92"/>
-      <c r="D75" s="92"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" s="85"/>
-      <c r="H75" s="84"/>
-      <c r="I75" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J75" s="105"/>
-      <c r="K75" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="L75" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="M75" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N75" s="100" t="s">
-        <v>217</v>
-      </c>
-      <c r="O75" s="80"/>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="101"/>
-      <c r="B76" s="102" t="s">
-        <v>218</v>
-      </c>
-      <c r="C76" s="92"/>
-      <c r="D76" s="92"/>
-      <c r="E76" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="92"/>
-      <c r="G76" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="H76" s="114" t="s">
-        <v>21</v>
-      </c>
-      <c r="I76" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J76" s="105"/>
-      <c r="K76" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="L76" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="M76" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N76" s="100" t="s">
-        <v>196</v>
-      </c>
-      <c r="O76" s="80"/>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="101"/>
-      <c r="B77" s="102" t="s">
-        <v>219</v>
-      </c>
-      <c r="C77" s="92"/>
-      <c r="D77" s="92"/>
-      <c r="E77" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="H77" s="118"/>
-      <c r="I77" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J77" s="105"/>
-      <c r="K77" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L77" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M77" s="113"/>
-      <c r="N77" s="100" t="s">
-        <v>220</v>
-      </c>
-      <c r="O77" s="80"/>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="101"/>
-      <c r="B78" s="102" t="s">
-        <v>221</v>
-      </c>
-      <c r="C78" s="92"/>
-      <c r="D78" s="92"/>
-      <c r="E78" s="85"/>
-      <c r="F78" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" s="92"/>
-      <c r="H78" s="118"/>
-      <c r="I78" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J78" s="105"/>
-      <c r="K78" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="L78" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="M78" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N78" s="88" t="s">
-        <v>222</v>
-      </c>
-      <c r="O78" s="80"/>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="101"/>
-      <c r="B79" s="102" t="s">
-        <v>223</v>
-      </c>
-      <c r="C79" s="92"/>
-      <c r="D79" s="92"/>
-      <c r="E79" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" s="92"/>
-      <c r="G79" s="85"/>
-      <c r="H79" s="84"/>
-      <c r="I79" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J79" s="115"/>
-      <c r="K79" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="L79" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="M79" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N79" s="100" t="s">
-        <v>224</v>
-      </c>
-      <c r="O79" s="80"/>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="101"/>
-      <c r="B80" s="102" t="s">
-        <v>225</v>
-      </c>
-      <c r="C80" s="92"/>
-      <c r="D80" s="92"/>
-      <c r="E80" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F80" s="92"/>
-      <c r="G80" s="106" t="s">
-        <v>20</v>
-      </c>
-      <c r="H80" s="84"/>
-      <c r="I80" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J80" s="115"/>
-      <c r="K80" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L80" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M80" s="97"/>
-      <c r="N80" s="100"/>
-      <c r="O80" s="80"/>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="101"/>
-      <c r="B81" s="102" t="s">
-        <v>226</v>
-      </c>
-      <c r="C81" s="92"/>
-      <c r="D81" s="92"/>
-      <c r="E81" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="H81" s="118"/>
-      <c r="I81" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J81" s="105"/>
-      <c r="K81" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="L81" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="M81" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N81" s="100" t="s">
-        <v>227</v>
-      </c>
-      <c r="O81" s="80"/>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="101"/>
-      <c r="B82" s="102" t="s">
-        <v>228</v>
-      </c>
-      <c r="C82" s="92"/>
-      <c r="D82" s="92"/>
-      <c r="E82" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F82" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="H82" s="84"/>
-      <c r="I82" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J82" s="105"/>
-      <c r="K82" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="L82" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="M82" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N82" s="100" t="s">
-        <v>229</v>
-      </c>
-      <c r="O82" s="80"/>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="101"/>
-      <c r="B83" s="102" t="s">
-        <v>230</v>
-      </c>
-      <c r="C83" s="92"/>
-      <c r="D83" s="92"/>
-      <c r="E83" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" s="92" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" s="85"/>
-      <c r="H83" s="118"/>
-      <c r="I83" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J83" s="105"/>
-      <c r="K83" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="L83" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="M83" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N83" s="100"/>
-      <c r="O83" s="80"/>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="101"/>
-      <c r="B84" s="102" t="s">
-        <v>231</v>
-      </c>
-      <c r="C84" s="92"/>
-      <c r="D84" s="92"/>
-      <c r="E84" s="85"/>
-      <c r="F84" s="106" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" s="92"/>
-      <c r="H84" s="84"/>
-      <c r="I84" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J84" s="105"/>
-      <c r="K84" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="L84" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="M84" s="97" t="s">
-        <v>232</v>
-      </c>
-      <c r="N84" s="100"/>
-      <c r="O84" s="80"/>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="101"/>
-      <c r="B85" s="102" t="s">
-        <v>233</v>
-      </c>
-      <c r="C85" s="92"/>
-      <c r="D85" s="92"/>
-      <c r="E85" s="92"/>
-      <c r="F85" s="92"/>
-      <c r="G85" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="H85" s="118"/>
-      <c r="I85" s="85" t="s">
-        <v>76</v>
-      </c>
-      <c r="J85" s="105"/>
-      <c r="K85" s="106" t="s">
-        <v>234</v>
-      </c>
-      <c r="L85" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="M85" s="97" t="s">
-        <v>235</v>
-      </c>
-      <c r="N85" s="100" t="s">
-        <v>236</v>
-      </c>
-      <c r="O85" s="80"/>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="101"/>
-      <c r="B86" s="102" t="s">
-        <v>237</v>
-      </c>
-      <c r="C86" s="92"/>
-      <c r="D86" s="92"/>
-      <c r="E86" s="92"/>
-      <c r="F86" s="92"/>
-      <c r="G86" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="H86" s="84"/>
-      <c r="I86" s="92" t="s">
-        <v>76</v>
-      </c>
-      <c r="J86" s="105"/>
-      <c r="K86" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="L86" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="M86" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="N86" s="100"/>
-      <c r="O86" s="80"/>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="101"/>
-      <c r="B87" s="102" t="s">
-        <v>239</v>
-      </c>
-      <c r="C87" s="92"/>
-      <c r="D87" s="92"/>
-      <c r="E87" s="92"/>
-      <c r="F87" s="92"/>
-      <c r="G87" s="106" t="s">
-        <v>20</v>
-      </c>
-      <c r="H87" s="84"/>
-      <c r="I87" s="92" t="s">
-        <v>76</v>
-      </c>
-      <c r="J87" s="105"/>
-      <c r="K87" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L87" s="106" t="s">
-        <v>56</v>
-      </c>
-      <c r="M87" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N87" s="100"/>
-      <c r="O87" s="80"/>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="101"/>
-      <c r="B88" s="102" t="s">
-        <v>240</v>
-      </c>
-      <c r="C88" s="92"/>
-      <c r="D88" s="92"/>
-      <c r="E88" s="92"/>
-      <c r="F88" s="92"/>
-      <c r="G88" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="H88" s="84"/>
-      <c r="I88" s="92" t="s">
-        <v>76</v>
-      </c>
-      <c r="J88" s="105"/>
-      <c r="K88" s="106" t="s">
-        <v>234</v>
-      </c>
-      <c r="L88" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="M88" s="97" t="s">
-        <v>241</v>
-      </c>
-      <c r="N88" s="101"/>
-      <c r="O88" s="80"/>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="101"/>
-      <c r="B89" s="102" t="s">
-        <v>242</v>
-      </c>
-      <c r="C89" s="80"/>
-      <c r="D89" s="80"/>
-      <c r="E89" s="80"/>
-      <c r="F89" s="80"/>
-      <c r="G89" s="80"/>
-      <c r="H89" s="104" t="s">
-        <v>21</v>
-      </c>
-      <c r="I89" s="92" t="s">
-        <v>76</v>
-      </c>
-      <c r="J89" s="80"/>
-      <c r="K89" s="108" t="s">
-        <v>77</v>
-      </c>
-      <c r="L89" s="106" t="s">
-        <v>78</v>
-      </c>
-      <c r="M89" s="97" t="s">
-        <v>79</v>
-      </c>
-      <c r="N89" s="101" t="s">
-        <v>243</v>
-      </c>
-      <c r="O89" s="80"/>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="B90" s="125"/>
-      <c r="C90" s="125"/>
-      <c r="D90" s="126"/>
-      <c r="E90" s="126"/>
-      <c r="F90" s="126"/>
-      <c r="G90" s="126"/>
-      <c r="H90" s="127" t="s">
-        <v>29</v>
-      </c>
-      <c r="I90" s="128">
-        <v>89.0</v>
-      </c>
-      <c r="J90" s="125"/>
-      <c r="K90" s="125"/>
-      <c r="L90" s="125"/>
-      <c r="M90" s="125"/>
-      <c r="N90" s="125"/>
-    </row>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
+      <c r="J91" s="114"/>
+      <c r="K91" s="114"/>
+      <c r="L91" s="114"/>
+      <c r="M91" s="114"/>
+      <c r="N91" s="114"/>
+    </row>
+    <row r="92" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="93" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="94" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="95" spans="1:15" ht="15.75" customHeight="1"/>
+    <row r="96" spans="1:15" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>
     <row r="98" ht="15.75" customHeight="1"/>
     <row r="99" ht="15.75" customHeight="1"/>
@@ -9306,12 +9629,7 @@
     <row r="983" ht="15.75" customHeight="1"/>
     <row r="984" ht="15.75" customHeight="1"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="N18"/>
-  </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tablas de sonido/CueSheet_nolineal.xlsx
+++ b/Tablas de sonido/CueSheet_nolineal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="495" windowWidth="21015" windowHeight="9405" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="495" windowWidth="21015" windowHeight="9405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="248">
   <si>
     <t>Cue-Sheet intro</t>
   </si>
@@ -752,13 +752,22 @@
   </si>
   <si>
     <t>SFX/Personaje Arpa golpea</t>
+  </si>
+  <si>
+    <t>Ambiente de misterio</t>
+  </si>
+  <si>
+    <t>Música para el trailer que cautivará al jugador y le creará unas buenas espectativas del juego</t>
+  </si>
+  <si>
+    <t>Musica/Trailer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -789,16 +798,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -868,6 +867,31 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1351,7 +1375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1425,90 +1449,27 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1517,7 +1478,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1530,125 +1491,191 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1732,7 +1759,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
@@ -1749,7 +1775,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1767,7 +1793,7 @@
     <xdr:ext cx="4229100" cy="3038475"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2084,232 +2110,232 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="31.5">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
+      <c r="D1" s="30"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
     </row>
     <row r="2" spans="1:26" ht="15.75">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="1:26" ht="15.75">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="63" t="s">
+      <c r="E3" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="64" t="s">
+      <c r="I3" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="60"/>
-      <c r="R3" s="60"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="60"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
     </row>
     <row r="4" spans="1:26" ht="15.75">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="67"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:26" ht="15.75">
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="67">
+      <c r="C5" s="45"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="46">
         <f t="shared" ref="I5:I6" si="0">SUM(C5:H5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="74">
+      <c r="C6" s="53">
         <v>7</v>
       </c>
-      <c r="D6" s="76">
+      <c r="D6" s="55">
         <v>7</v>
       </c>
-      <c r="E6" s="76">
+      <c r="E6" s="55">
         <v>19</v>
       </c>
-      <c r="F6" s="76">
+      <c r="F6" s="55">
         <v>25</v>
       </c>
-      <c r="G6" s="76">
+      <c r="G6" s="55">
         <v>22</v>
       </c>
-      <c r="H6" s="76">
+      <c r="H6" s="55">
         <v>7</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="46">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="J6" s="79"/>
+      <c r="J6" s="58"/>
     </row>
     <row r="7" spans="1:26" ht="15.75">
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="67"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="46"/>
     </row>
     <row r="8" spans="1:26" ht="15.75">
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="67"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="46"/>
     </row>
     <row r="9" spans="1:26" ht="15.75">
-      <c r="B9" s="81"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="67"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="46"/>
     </row>
     <row r="10" spans="1:26" ht="15.75">
-      <c r="B10" s="81"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="67"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="46"/>
     </row>
     <row r="11" spans="1:26" ht="15.75">
-      <c r="B11" s="85"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="91"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="70"/>
     </row>
     <row r="12" spans="1:26" ht="15.75">
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="93">
+      <c r="C12" s="72">
         <v>8</v>
       </c>
-      <c r="D12" s="95">
+      <c r="D12" s="74">
         <f t="shared" ref="D12:I12" si="1">SUM(D5:D11)</f>
         <v>7</v>
       </c>
-      <c r="E12" s="95">
+      <c r="E12" s="74">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="F12" s="95">
+      <c r="F12" s="74">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="G12" s="95">
+      <c r="G12" s="74">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="H12" s="95">
+      <c r="H12" s="74">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I12" s="95">
+      <c r="I12" s="74">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75">
-      <c r="B13" s="55"/>
-      <c r="C13" s="96"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="75"/>
     </row>
     <row r="14" spans="1:26" ht="15.75">
-      <c r="B14" s="55"/>
+      <c r="B14" s="34"/>
     </row>
     <row r="15" spans="1:26" ht="15.75">
-      <c r="B15" s="55"/>
+      <c r="B15" s="34"/>
     </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
@@ -3307,19 +3333,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q992"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="4" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="2" max="3" width="6.625" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
     <col min="6" max="11" width="2" customWidth="1"/>
     <col min="12" max="12" width="7.375" customWidth="1"/>
-    <col min="13" max="14" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="20.375" customWidth="1"/>
+    <col min="14" max="14" width="12.25" customWidth="1"/>
     <col min="15" max="15" width="8.625" customWidth="1"/>
-    <col min="16" max="16" width="23.5" customWidth="1"/>
-    <col min="17" max="17" width="21.625" customWidth="1"/>
+    <col min="16" max="16" width="32.375" customWidth="1"/>
+    <col min="17" max="17" width="77.625" customWidth="1"/>
     <col min="18" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3451,154 +3481,166 @@
     </row>
     <row r="5" spans="1:17" ht="13.5" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="32"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="120" t="s">
+        <v>247</v>
+      </c>
+      <c r="F5" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="102" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="104" t="s">
+        <v>245</v>
+      </c>
+      <c r="N5" s="102"/>
+      <c r="O5" s="102" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="106" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="6" spans="1:17" ht="13.5" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="35"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="102"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="102"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="109"/>
     </row>
     <row r="7" spans="1:17" ht="13.5" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="35"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="109"/>
     </row>
     <row r="8" spans="1:17" ht="13.5" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="35"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="109"/>
     </row>
     <row r="9" spans="1:17" ht="13.5" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="35"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="109"/>
     </row>
     <row r="10" spans="1:17" ht="13.5" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="35"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="109"/>
     </row>
     <row r="11" spans="1:17" ht="13.5" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="45"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="115"/>
+      <c r="O11" s="115"/>
+      <c r="P11" s="118"/>
+      <c r="Q11" s="119"/>
     </row>
     <row r="12" spans="1:17" ht="13.5" customHeight="1">
       <c r="A12" s="2"/>
-      <c r="B12" s="46"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -3607,19 +3649,19 @@
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
@@ -3629,18 +3671,18 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="52" t="s">
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="54"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
@@ -4625,7 +4667,7 @@
     <row r="992" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4634,7 +4676,7 @@
   <dimension ref="A1:W984"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -4652,26 +4694,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="32.25" thickBot="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="47" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
       <c r="I1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
     </row>
     <row r="2" spans="1:15" ht="13.5" customHeight="1" thickBot="1">
       <c r="A2" s="5"/>
@@ -4758,164 +4800,164 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A5" s="110"/>
-      <c r="B5" s="71" t="s">
+      <c r="A5" s="89"/>
+      <c r="B5" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="105"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="84"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A6" s="110"/>
-      <c r="B6" s="98" t="s">
+      <c r="A6" s="89"/>
+      <c r="B6" s="77" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="107"/>
-      <c r="I6" s="99" t="s">
+      <c r="H6" s="86"/>
+      <c r="I6" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="105" t="s">
+      <c r="J6" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="99" t="s">
+      <c r="L6" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="109" t="s">
+      <c r="M6" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="N6" s="118"/>
-      <c r="O6" s="105"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="84"/>
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A7" s="97"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="104"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="105"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="84"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A8" s="97"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="105"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="84"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A9" s="97"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="105"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="84"/>
     </row>
     <row r="10" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A10" s="97"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="105"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="78"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="84"/>
     </row>
     <row r="11" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A11" s="97"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="105"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="84"/>
     </row>
     <row r="12" spans="1:15" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A12" s="97"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="105"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="84"/>
     </row>
     <row r="13" spans="1:15" ht="13.5" customHeight="1">
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="114"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
     </row>
     <row r="14" spans="1:15" ht="15.75"/>
     <row r="15" spans="1:15" ht="13.5" customHeight="1"/>
@@ -4924,11 +4966,11 @@
     <row r="18" spans="17:23" ht="13.5" customHeight="1"/>
     <row r="19" spans="17:23" ht="13.5" customHeight="1"/>
     <row r="20" spans="17:23" ht="15.75">
-      <c r="W20" s="82"/>
+      <c r="W20" s="61"/>
     </row>
     <row r="21" spans="17:23" ht="15.75" customHeight="1"/>
     <row r="22" spans="17:23" ht="15.75" customHeight="1">
-      <c r="Q22" s="103"/>
+      <c r="Q22" s="82"/>
     </row>
     <row r="23" spans="17:23" ht="15.75" customHeight="1"/>
     <row r="24" spans="17:23" ht="15.75" customHeight="1"/>
@@ -5902,8 +5944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W984"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -5921,7 +5963,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="31.5">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="47" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -6027,2713 +6069,2713 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="80"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="59"/>
     </row>
     <row r="6" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A6" s="70"/>
-      <c r="B6" s="98" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="77" t="s">
         <v>240</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="83"/>
-      <c r="I6" s="84" t="s">
+      <c r="H6" s="62"/>
+      <c r="I6" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="105" t="s">
+      <c r="J6" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="84" t="s">
+      <c r="L6" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="M6" s="86" t="s">
+      <c r="M6" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="N6" s="118" t="s">
+      <c r="N6" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="O6" s="80"/>
+      <c r="O6" s="59"/>
     </row>
     <row r="7" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A7" s="70"/>
-      <c r="B7" s="98" t="s">
+      <c r="A7" s="49"/>
+      <c r="B7" s="77" t="s">
         <v>241</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="84" t="s">
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="82" t="s">
+      <c r="J7" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="90"/>
-      <c r="L7" s="84" t="s">
+      <c r="K7" s="69"/>
+      <c r="L7" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="M7" s="86" t="s">
+      <c r="M7" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="N7" s="87" t="s">
+      <c r="N7" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="O7" s="80"/>
+      <c r="O7" s="59"/>
     </row>
     <row r="8" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A8" s="110"/>
-      <c r="B8" s="98" t="s">
+      <c r="A8" s="89"/>
+      <c r="B8" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="107"/>
-      <c r="I8" s="99" t="s">
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="102" t="s">
+      <c r="J8" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99" t="s">
+      <c r="K8" s="78"/>
+      <c r="L8" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M8" s="109" t="s">
+      <c r="M8" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="N8" s="87" t="s">
+      <c r="N8" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="105"/>
+      <c r="O8" s="84"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A9" s="110"/>
-      <c r="B9" s="98" t="s">
+      <c r="A9" s="89"/>
+      <c r="B9" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="99" t="s">
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="102" t="s">
+      <c r="J9" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99" t="s">
+      <c r="K9" s="78"/>
+      <c r="L9" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M9" s="94" t="s">
+      <c r="M9" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="87" t="s">
+      <c r="N9" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="O9" s="105"/>
+      <c r="O9" s="84"/>
     </row>
     <row r="10" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A10" s="110"/>
-      <c r="B10" s="98" t="s">
+      <c r="A10" s="89"/>
+      <c r="B10" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="99" t="s">
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="102" t="s">
+      <c r="J10" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99" t="s">
+      <c r="K10" s="78"/>
+      <c r="L10" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M10" s="94" t="s">
+      <c r="M10" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="87" t="s">
+      <c r="N10" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="O10" s="105"/>
+      <c r="O10" s="84"/>
     </row>
     <row r="11" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A11" s="110"/>
-      <c r="B11" s="98" t="s">
+      <c r="A11" s="89"/>
+      <c r="B11" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="99" t="s">
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="102" t="s">
+      <c r="J11" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99" t="s">
+      <c r="K11" s="78"/>
+      <c r="L11" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M11" s="94" t="s">
+      <c r="M11" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="N11" s="97" t="s">
+      <c r="N11" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="O11" s="105"/>
+      <c r="O11" s="84"/>
     </row>
     <row r="12" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A12" s="97"/>
-      <c r="B12" s="98" t="s">
+      <c r="A12" s="76"/>
+      <c r="B12" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="105" t="s">
+      <c r="C12" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="99" t="s">
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="102" t="s">
+      <c r="J12" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="105"/>
-      <c r="L12" s="99" t="s">
+      <c r="K12" s="84"/>
+      <c r="L12" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M12" s="94" t="s">
+      <c r="M12" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="N12" s="87" t="s">
+      <c r="N12" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="O12" s="105"/>
+      <c r="O12" s="84"/>
     </row>
     <row r="13" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A13" s="97"/>
-      <c r="B13" s="98" t="s">
+      <c r="A13" s="76"/>
+      <c r="B13" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="99" t="s">
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="104"/>
-      <c r="K13" s="99" t="s">
+      <c r="J13" s="83"/>
+      <c r="K13" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L13" s="100" t="s">
+      <c r="L13" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="M13" s="94" t="s">
+      <c r="M13" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N13" s="87" t="s">
+      <c r="N13" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="O13" s="105"/>
+      <c r="O13" s="84"/>
     </row>
     <row r="14" spans="1:15" ht="15.75">
-      <c r="A14" s="97"/>
-      <c r="B14" s="98" t="s">
+      <c r="A14" s="76"/>
+      <c r="B14" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105" t="s">
+      <c r="C14" s="84"/>
+      <c r="D14" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105" t="s">
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="106"/>
-      <c r="I14" s="99" t="s">
+      <c r="H14" s="85"/>
+      <c r="I14" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="105"/>
-      <c r="K14" s="99" t="s">
+      <c r="J14" s="84"/>
+      <c r="K14" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L14" s="99" t="s">
+      <c r="L14" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="M14" s="94" t="s">
+      <c r="M14" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="N14" s="97" t="s">
+      <c r="N14" s="76" t="s">
         <v>82</v>
       </c>
-      <c r="O14" s="105"/>
+      <c r="O14" s="84"/>
     </row>
     <row r="15" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A15" s="97"/>
-      <c r="B15" s="98" t="s">
+      <c r="A15" s="76"/>
+      <c r="B15" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105" t="s">
+      <c r="C15" s="84"/>
+      <c r="D15" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="105" t="s">
+      <c r="E15" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="99" t="s">
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J15" s="105"/>
-      <c r="K15" s="99" t="s">
+      <c r="J15" s="84"/>
+      <c r="K15" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L15" s="99" t="s">
+      <c r="L15" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="M15" s="94" t="s">
+      <c r="M15" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="N15" s="97" t="s">
+      <c r="N15" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="O15" s="105"/>
+      <c r="O15" s="84"/>
     </row>
     <row r="16" spans="1:15" ht="13.5" customHeight="1">
-      <c r="A16" s="97"/>
-      <c r="B16" s="98" t="s">
+      <c r="A16" s="76"/>
+      <c r="B16" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99" t="s">
+      <c r="C16" s="78"/>
+      <c r="D16" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="99" t="s">
+      <c r="E16" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="99" t="s">
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J16" s="104"/>
-      <c r="K16" s="99" t="s">
+      <c r="J16" s="83"/>
+      <c r="K16" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="L16" s="99" t="s">
+      <c r="L16" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="M16" s="94" t="s">
+      <c r="M16" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="N16" s="97" t="s">
+      <c r="N16" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="O16" s="105"/>
+      <c r="O16" s="84"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A17" s="97"/>
-      <c r="B17" s="98" t="s">
+      <c r="A17" s="76"/>
+      <c r="B17" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99" t="s">
+      <c r="C17" s="78"/>
+      <c r="D17" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="99" t="s">
+      <c r="E17" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="99" t="s">
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J17" s="104"/>
-      <c r="K17" s="99" t="s">
+      <c r="J17" s="83"/>
+      <c r="K17" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L17" s="99" t="s">
+      <c r="L17" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="M17" s="94" t="s">
+      <c r="M17" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="N17" s="82" t="s">
+      <c r="N17" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="O17" s="105"/>
+      <c r="O17" s="84"/>
     </row>
     <row r="18" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A18" s="97"/>
-      <c r="B18" s="98" t="s">
+      <c r="A18" s="76"/>
+      <c r="B18" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105" t="s">
+      <c r="C18" s="84"/>
+      <c r="D18" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="105" t="s">
+      <c r="E18" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="99" t="s">
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J18" s="105"/>
-      <c r="K18" s="99" t="s">
+      <c r="J18" s="84"/>
+      <c r="K18" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="L18" s="99" t="s">
+      <c r="L18" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="M18" s="94" t="s">
+      <c r="M18" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="N18" s="97" t="s">
+      <c r="N18" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="O18" s="105"/>
+      <c r="O18" s="84"/>
     </row>
     <row r="19" spans="1:23" ht="13.5" customHeight="1">
-      <c r="A19" s="97"/>
-      <c r="B19" s="98" t="s">
+      <c r="A19" s="76"/>
+      <c r="B19" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105" t="s">
+      <c r="C19" s="84"/>
+      <c r="D19" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105" t="s">
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="106"/>
-      <c r="I19" s="99" t="s">
+      <c r="H19" s="85"/>
+      <c r="I19" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="105"/>
-      <c r="K19" s="108" t="s">
+      <c r="J19" s="84"/>
+      <c r="K19" s="87" t="s">
         <v>95</v>
       </c>
-      <c r="L19" s="99" t="s">
+      <c r="L19" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="M19" s="94" t="s">
+      <c r="M19" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="N19" s="101" t="s">
+      <c r="N19" s="80" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="15.75">
-      <c r="A20" s="97"/>
-      <c r="B20" s="98" t="s">
+      <c r="A20" s="76"/>
+      <c r="B20" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105" t="s">
+      <c r="C20" s="84"/>
+      <c r="D20" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="105" t="s">
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="106"/>
-      <c r="I20" s="99" t="s">
+      <c r="H20" s="85"/>
+      <c r="I20" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="105"/>
-      <c r="K20" s="108" t="s">
+      <c r="J20" s="84"/>
+      <c r="K20" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="L20" s="99" t="s">
+      <c r="L20" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="M20" s="94" t="s">
+      <c r="M20" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="N20" s="97" t="s">
+      <c r="N20" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="O20" s="105"/>
-      <c r="W20" s="82"/>
+      <c r="O20" s="84"/>
+      <c r="W20" s="61"/>
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A21" s="97"/>
-      <c r="B21" s="98" t="s">
+      <c r="A21" s="76"/>
+      <c r="B21" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99" t="s">
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="107"/>
-      <c r="I21" s="99" t="s">
+      <c r="H21" s="86"/>
+      <c r="I21" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="102" t="s">
+      <c r="J21" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99" t="s">
+      <c r="K21" s="78"/>
+      <c r="L21" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M21" s="94"/>
-      <c r="N21" s="97" t="s">
+      <c r="M21" s="73"/>
+      <c r="N21" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="O21" s="105"/>
+      <c r="O21" s="84"/>
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A22" s="97"/>
-      <c r="B22" s="98" t="s">
+      <c r="A22" s="76"/>
+      <c r="B22" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99" t="s">
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="107"/>
-      <c r="I22" s="99" t="s">
+      <c r="H22" s="86"/>
+      <c r="I22" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="102" t="s">
+      <c r="J22" s="81" t="s">
         <v>108</v>
       </c>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99" t="s">
+      <c r="K22" s="78"/>
+      <c r="L22" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M22" s="107"/>
-      <c r="N22" s="97" t="s">
+      <c r="M22" s="86"/>
+      <c r="N22" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="O22" s="105"/>
-      <c r="Q22" s="103"/>
+      <c r="O22" s="84"/>
+      <c r="Q22" s="82"/>
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A23" s="97"/>
-      <c r="B23" s="98" t="s">
+      <c r="A23" s="76"/>
+      <c r="B23" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105" t="s">
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105" t="s">
+      <c r="F23" s="84"/>
+      <c r="G23" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="106"/>
-      <c r="I23" s="99" t="s">
+      <c r="H23" s="85"/>
+      <c r="I23" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="J23" s="102" t="s">
+      <c r="J23" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="K23" s="105"/>
-      <c r="L23" s="99" t="s">
+      <c r="K23" s="84"/>
+      <c r="L23" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M23" s="106"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="105"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="84"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A24" s="97"/>
-      <c r="B24" s="98" t="s">
+      <c r="A24" s="76"/>
+      <c r="B24" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105" t="s">
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="106" t="s">
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="99" t="s">
+      <c r="I24" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J24" s="105"/>
-      <c r="K24" s="108" t="s">
+      <c r="J24" s="84"/>
+      <c r="K24" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="L24" s="108" t="s">
+      <c r="L24" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="M24" s="106"/>
-      <c r="N24" s="97" t="s">
+      <c r="M24" s="85"/>
+      <c r="N24" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="O24" s="105"/>
+      <c r="O24" s="84"/>
     </row>
     <row r="25" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A25" s="97"/>
-      <c r="B25" s="98" t="s">
+      <c r="A25" s="76"/>
+      <c r="B25" s="77" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105" t="s">
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="105"/>
-      <c r="G25" s="105" t="s">
+      <c r="F25" s="84"/>
+      <c r="G25" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="106"/>
-      <c r="I25" s="99" t="s">
+      <c r="H25" s="85"/>
+      <c r="I25" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="J25" s="102" t="s">
+      <c r="J25" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="K25" s="105"/>
-      <c r="L25" s="108" t="s">
+      <c r="K25" s="84"/>
+      <c r="L25" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="M25" s="106"/>
-      <c r="N25" s="97" t="s">
+      <c r="M25" s="85"/>
+      <c r="N25" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="O25" s="105"/>
+      <c r="O25" s="84"/>
     </row>
     <row r="26" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A26" s="97"/>
-      <c r="B26" s="98" t="s">
+      <c r="A26" s="76"/>
+      <c r="B26" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99" t="s">
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99" t="s">
+      <c r="F26" s="78"/>
+      <c r="G26" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="107"/>
-      <c r="I26" s="99" t="s">
+      <c r="H26" s="86"/>
+      <c r="I26" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J26" s="104"/>
-      <c r="K26" s="99" t="s">
+      <c r="J26" s="83"/>
+      <c r="K26" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L26" s="99" t="s">
+      <c r="L26" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="M26" s="107"/>
-      <c r="N26" s="97" t="s">
+      <c r="M26" s="86"/>
+      <c r="N26" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="O26" s="105"/>
+      <c r="O26" s="84"/>
     </row>
     <row r="27" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A27" s="97"/>
-      <c r="B27" s="98" t="s">
+      <c r="A27" s="76"/>
+      <c r="B27" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99" t="s">
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99" t="s">
+      <c r="F27" s="78"/>
+      <c r="G27" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="107"/>
-      <c r="I27" s="99" t="s">
+      <c r="H27" s="86"/>
+      <c r="I27" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="J27" s="102" t="s">
+      <c r="J27" s="81" t="s">
         <v>121</v>
       </c>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99" t="s">
+      <c r="K27" s="78"/>
+      <c r="L27" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M27" s="107"/>
-      <c r="N27" s="97" t="s">
+      <c r="M27" s="86"/>
+      <c r="N27" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="O27" s="105"/>
+      <c r="O27" s="84"/>
     </row>
     <row r="28" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A28" s="97"/>
-      <c r="B28" s="98" t="s">
+      <c r="A28" s="76"/>
+      <c r="B28" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105" t="s">
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="105"/>
-      <c r="G28" s="105" t="s">
+      <c r="F28" s="84"/>
+      <c r="G28" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="106"/>
-      <c r="I28" s="99" t="s">
+      <c r="H28" s="85"/>
+      <c r="I28" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="J28" s="102" t="s">
+      <c r="J28" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="K28" s="105"/>
-      <c r="L28" s="99" t="s">
+      <c r="K28" s="84"/>
+      <c r="L28" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M28" s="106"/>
-      <c r="N28" s="97" t="s">
+      <c r="M28" s="85"/>
+      <c r="N28" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="O28" s="105"/>
+      <c r="O28" s="84"/>
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A29" s="97"/>
-      <c r="B29" s="98" t="s">
+      <c r="A29" s="76"/>
+      <c r="B29" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99" t="s">
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99" t="s">
+      <c r="F29" s="78"/>
+      <c r="G29" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="107"/>
-      <c r="I29" s="99" t="s">
+      <c r="H29" s="86"/>
+      <c r="I29" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="J29" s="102" t="s">
+      <c r="J29" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99" t="s">
+      <c r="K29" s="78"/>
+      <c r="L29" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M29" s="106"/>
-      <c r="N29" s="97" t="s">
+      <c r="M29" s="85"/>
+      <c r="N29" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="O29" s="105"/>
+      <c r="O29" s="84"/>
     </row>
     <row r="30" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A30" s="97"/>
-      <c r="B30" s="98" t="s">
+      <c r="A30" s="76"/>
+      <c r="B30" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99" t="s">
+      <c r="C30" s="78"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="113" t="s">
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="99" t="s">
+      <c r="I30" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J30" s="104"/>
-      <c r="K30" s="99" t="s">
+      <c r="J30" s="83"/>
+      <c r="K30" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L30" s="99" t="s">
+      <c r="L30" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="M30" s="94" t="s">
+      <c r="M30" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N30" s="97" t="s">
+      <c r="N30" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="O30" s="105"/>
+      <c r="O30" s="84"/>
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A31" s="97"/>
-      <c r="B31" s="98" t="s">
+      <c r="A31" s="76"/>
+      <c r="B31" s="77" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="105" t="s">
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="105"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="99" t="s">
+      <c r="G31" s="84"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J31" s="105"/>
-      <c r="K31" s="99" t="s">
+      <c r="J31" s="84"/>
+      <c r="K31" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L31" s="99"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="97"/>
-      <c r="O31" s="105"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="84"/>
     </row>
     <row r="32" spans="1:23" ht="15.75" customHeight="1">
-      <c r="A32" s="97"/>
-      <c r="B32" s="98" t="s">
+      <c r="A32" s="76"/>
+      <c r="B32" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="106" t="s">
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="84"/>
+      <c r="H32" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="99" t="s">
+      <c r="I32" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J32" s="105"/>
-      <c r="K32" s="99" t="s">
+      <c r="J32" s="84"/>
+      <c r="K32" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L32" s="99" t="s">
+      <c r="L32" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M32" s="94" t="s">
+      <c r="M32" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N32" s="97"/>
-      <c r="O32" s="105"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="84"/>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A33" s="97"/>
-      <c r="B33" s="98" t="s">
+      <c r="A33" s="76"/>
+      <c r="B33" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="106" t="s">
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="99" t="s">
+      <c r="I33" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J33" s="105"/>
-      <c r="K33" s="99" t="s">
+      <c r="J33" s="84"/>
+      <c r="K33" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L33" s="99" t="s">
+      <c r="L33" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M33" s="94" t="s">
+      <c r="M33" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N33" s="97"/>
-      <c r="O33" s="105"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="84"/>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A34" s="97"/>
-      <c r="B34" s="98" t="s">
+      <c r="A34" s="76"/>
+      <c r="B34" s="77" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="106" t="s">
+      <c r="C34" s="84"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="84"/>
+      <c r="H34" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="99" t="s">
+      <c r="I34" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J34" s="105"/>
-      <c r="K34" s="99" t="s">
+      <c r="J34" s="84"/>
+      <c r="K34" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L34" s="99" t="s">
+      <c r="L34" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M34" s="94" t="s">
+      <c r="M34" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N34" s="97" t="s">
+      <c r="N34" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="O34" s="105"/>
+      <c r="O34" s="84"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A35" s="97"/>
-      <c r="B35" s="98" t="s">
+      <c r="A35" s="76"/>
+      <c r="B35" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="106" t="s">
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="99" t="s">
+      <c r="I35" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J35" s="105"/>
-      <c r="K35" s="99" t="s">
+      <c r="J35" s="84"/>
+      <c r="K35" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L35" s="99" t="s">
+      <c r="L35" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M35" s="94" t="s">
+      <c r="M35" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N35" s="97" t="s">
+      <c r="N35" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="O35" s="105"/>
+      <c r="O35" s="84"/>
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A36" s="97"/>
-      <c r="B36" s="98" t="s">
+      <c r="A36" s="76"/>
+      <c r="B36" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105" t="s">
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="105"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="99" t="s">
+      <c r="G36" s="84"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J36" s="105"/>
-      <c r="K36" s="99" t="s">
+      <c r="J36" s="84"/>
+      <c r="K36" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L36" s="99" t="s">
+      <c r="L36" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M36" s="94" t="s">
+      <c r="M36" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N36" s="97"/>
-      <c r="O36" s="105"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="84"/>
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A37" s="97"/>
-      <c r="B37" s="98" t="s">
+      <c r="A37" s="76"/>
+      <c r="B37" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="105"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105" t="s">
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="105"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="99" t="s">
+      <c r="G37" s="84"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J37" s="105"/>
-      <c r="K37" s="99" t="s">
+      <c r="J37" s="84"/>
+      <c r="K37" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L37" s="99" t="s">
+      <c r="L37" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M37" s="94" t="s">
+      <c r="M37" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N37" s="97" t="s">
+      <c r="N37" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="O37" s="105"/>
+      <c r="O37" s="84"/>
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A38" s="97"/>
-      <c r="B38" s="98" t="s">
+      <c r="A38" s="76"/>
+      <c r="B38" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="105" t="s">
+      <c r="C38" s="84"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="105"/>
-      <c r="G38" s="105" t="s">
+      <c r="F38" s="84"/>
+      <c r="G38" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="106"/>
-      <c r="I38" s="99" t="s">
+      <c r="H38" s="85"/>
+      <c r="I38" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J38" s="105"/>
-      <c r="K38" s="99" t="s">
+      <c r="J38" s="84"/>
+      <c r="K38" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L38" s="99" t="s">
+      <c r="L38" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M38" s="94" t="s">
+      <c r="M38" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N38" s="97" t="s">
+      <c r="N38" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="O38" s="105"/>
+      <c r="O38" s="84"/>
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A39" s="97"/>
-      <c r="B39" s="98" t="s">
+      <c r="A39" s="76"/>
+      <c r="B39" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105"/>
-      <c r="E39" s="105" t="s">
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="105"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="99" t="s">
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J39" s="105"/>
-      <c r="K39" s="99" t="s">
+      <c r="J39" s="84"/>
+      <c r="K39" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L39" s="99" t="s">
+      <c r="L39" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M39" s="94" t="s">
+      <c r="M39" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N39" s="97" t="s">
+      <c r="N39" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="O39" s="105"/>
+      <c r="O39" s="84"/>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A40" s="97"/>
-      <c r="B40" s="98" t="s">
+      <c r="A40" s="76"/>
+      <c r="B40" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99" t="s">
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="99"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="99" t="s">
+      <c r="G40" s="78"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J40" s="104"/>
-      <c r="K40" s="99" t="s">
+      <c r="J40" s="83"/>
+      <c r="K40" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L40" s="99" t="s">
+      <c r="L40" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M40" s="94" t="s">
+      <c r="M40" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N40" s="87" t="s">
+      <c r="N40" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="O40" s="105"/>
+      <c r="O40" s="84"/>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A41" s="97"/>
-      <c r="B41" s="98" t="s">
+      <c r="A41" s="76"/>
+      <c r="B41" s="77" t="s">
         <v>244</v>
       </c>
-      <c r="C41" s="99"/>
-      <c r="D41" s="99"/>
-      <c r="E41" s="99" t="s">
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="99"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="99" t="s">
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J41" s="104"/>
-      <c r="K41" s="99" t="s">
+      <c r="J41" s="83"/>
+      <c r="K41" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L41" s="99" t="s">
+      <c r="L41" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M41" s="94" t="s">
+      <c r="M41" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N41" s="97" t="s">
+      <c r="N41" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="O41" s="105"/>
+      <c r="O41" s="84"/>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A42" s="97"/>
-      <c r="B42" s="98" t="s">
+      <c r="A42" s="76"/>
+      <c r="B42" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99" t="s">
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="99"/>
-      <c r="G42" s="99" t="s">
+      <c r="F42" s="78"/>
+      <c r="G42" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H42" s="107"/>
-      <c r="I42" s="99" t="s">
+      <c r="H42" s="86"/>
+      <c r="I42" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J42" s="104"/>
-      <c r="K42" s="99" t="s">
+      <c r="J42" s="83"/>
+      <c r="K42" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L42" s="99" t="s">
+      <c r="L42" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M42" s="94" t="s">
+      <c r="M42" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N42" s="97" t="s">
+      <c r="N42" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="O42" s="105"/>
+      <c r="O42" s="84"/>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A43" s="97"/>
-      <c r="B43" s="98" t="s">
+      <c r="A43" s="76"/>
+      <c r="B43" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99" t="s">
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="99" t="s">
+      <c r="F43" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="G43" s="99"/>
-      <c r="H43" s="107"/>
-      <c r="I43" s="99" t="s">
+      <c r="G43" s="78"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J43" s="104"/>
-      <c r="K43" s="99" t="s">
+      <c r="J43" s="83"/>
+      <c r="K43" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L43" s="99" t="s">
+      <c r="L43" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M43" s="94" t="s">
+      <c r="M43" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N43" s="97" t="s">
+      <c r="N43" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="O43" s="105"/>
+      <c r="O43" s="84"/>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A44" s="97"/>
-      <c r="B44" s="98" t="s">
+      <c r="A44" s="76"/>
+      <c r="B44" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="C44" s="99"/>
-      <c r="D44" s="99"/>
-      <c r="E44" s="99" t="s">
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="99" t="s">
+      <c r="F44" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="G44" s="99"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="99" t="s">
+      <c r="G44" s="78"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J44" s="104"/>
-      <c r="K44" s="99" t="s">
+      <c r="J44" s="83"/>
+      <c r="K44" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L44" s="99" t="s">
+      <c r="L44" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M44" s="94" t="s">
+      <c r="M44" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N44" s="97" t="s">
+      <c r="N44" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="O44" s="105"/>
+      <c r="O44" s="84"/>
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A45" s="97"/>
-      <c r="B45" s="98" t="s">
+      <c r="A45" s="76"/>
+      <c r="B45" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
-      <c r="F45" s="99" t="s">
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="G45" s="99" t="s">
+      <c r="G45" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H45" s="107"/>
-      <c r="I45" s="99" t="s">
+      <c r="H45" s="86"/>
+      <c r="I45" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J45" s="104"/>
-      <c r="K45" s="99" t="s">
+      <c r="J45" s="83"/>
+      <c r="K45" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L45" s="99" t="s">
+      <c r="L45" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M45" s="94" t="s">
+      <c r="M45" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N45" s="97" t="s">
+      <c r="N45" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="O45" s="105"/>
+      <c r="O45" s="84"/>
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A46" s="97"/>
-      <c r="B46" s="98" t="s">
+      <c r="A46" s="76"/>
+      <c r="B46" s="77" t="s">
         <v>154</v>
       </c>
-      <c r="C46" s="99"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="99" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="78"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="G46" s="99" t="s">
+      <c r="G46" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H46" s="107"/>
-      <c r="I46" s="99" t="s">
+      <c r="H46" s="86"/>
+      <c r="I46" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J46" s="104"/>
-      <c r="K46" s="99" t="s">
+      <c r="J46" s="83"/>
+      <c r="K46" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L46" s="99" t="s">
+      <c r="L46" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M46" s="94" t="s">
+      <c r="M46" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N46" s="97" t="s">
+      <c r="N46" s="76" t="s">
         <v>155</v>
       </c>
-      <c r="O46" s="105"/>
+      <c r="O46" s="84"/>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A47" s="97"/>
-      <c r="B47" s="98" t="s">
+      <c r="A47" s="76"/>
+      <c r="B47" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="C47" s="99"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99" t="s">
+      <c r="C47" s="78"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="G47" s="99" t="s">
+      <c r="G47" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H47" s="107"/>
-      <c r="I47" s="99" t="s">
+      <c r="H47" s="86"/>
+      <c r="I47" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J47" s="104"/>
-      <c r="K47" s="99" t="s">
+      <c r="J47" s="83"/>
+      <c r="K47" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L47" s="99" t="s">
+      <c r="L47" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M47" s="94" t="s">
+      <c r="M47" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N47" s="97" t="s">
+      <c r="N47" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="O47" s="105"/>
+      <c r="O47" s="84"/>
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A48" s="97"/>
-      <c r="B48" s="98" t="s">
+      <c r="A48" s="76"/>
+      <c r="B48" s="77" t="s">
         <v>158</v>
       </c>
-      <c r="C48" s="105"/>
-      <c r="D48" s="105"/>
-      <c r="E48" s="105" t="s">
+      <c r="C48" s="84"/>
+      <c r="D48" s="84"/>
+      <c r="E48" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="108" t="s">
+      <c r="F48" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="G48" s="105"/>
-      <c r="H48" s="106"/>
-      <c r="I48" s="99" t="s">
+      <c r="G48" s="84"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J48" s="105"/>
-      <c r="K48" s="99" t="s">
+      <c r="J48" s="84"/>
+      <c r="K48" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L48" s="99" t="s">
+      <c r="L48" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M48" s="94" t="s">
+      <c r="M48" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N48" s="97"/>
-      <c r="O48" s="105"/>
+      <c r="N48" s="76"/>
+      <c r="O48" s="84"/>
     </row>
     <row r="49" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A49" s="97"/>
-      <c r="B49" s="98" t="s">
+      <c r="A49" s="76"/>
+      <c r="B49" s="77" t="s">
         <v>159</v>
       </c>
-      <c r="C49" s="105"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105" t="s">
+      <c r="C49" s="84"/>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F49" s="108" t="s">
+      <c r="F49" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="G49" s="105"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="99" t="s">
+      <c r="G49" s="84"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J49" s="105"/>
-      <c r="K49" s="99" t="s">
+      <c r="J49" s="84"/>
+      <c r="K49" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L49" s="99" t="s">
+      <c r="L49" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M49" s="94" t="s">
+      <c r="M49" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N49" s="97"/>
-      <c r="O49" s="105"/>
+      <c r="N49" s="76"/>
+      <c r="O49" s="84"/>
     </row>
     <row r="50" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A50" s="97"/>
-      <c r="B50" s="98" t="s">
+      <c r="A50" s="76"/>
+      <c r="B50" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="C50" s="99"/>
-      <c r="D50" s="104"/>
-      <c r="E50" s="104" t="s">
+      <c r="C50" s="78"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="F50" s="108"/>
-      <c r="G50" s="104" t="s">
+      <c r="F50" s="87"/>
+      <c r="G50" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="H50" s="107"/>
-      <c r="I50" s="99" t="s">
+      <c r="H50" s="86"/>
+      <c r="I50" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J50" s="104"/>
-      <c r="K50" s="99" t="s">
+      <c r="J50" s="83"/>
+      <c r="K50" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L50" s="99" t="s">
+      <c r="L50" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="M50" s="94" t="s">
+      <c r="M50" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N50" s="97"/>
-      <c r="O50" s="105"/>
+      <c r="N50" s="76"/>
+      <c r="O50" s="84"/>
     </row>
     <row r="51" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A51" s="97"/>
-      <c r="B51" s="98" t="s">
+      <c r="A51" s="76"/>
+      <c r="B51" s="77" t="s">
         <v>161</v>
       </c>
-      <c r="C51" s="104"/>
-      <c r="D51" s="104"/>
-      <c r="E51" s="104" t="s">
+      <c r="C51" s="83"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="F51" s="108"/>
-      <c r="G51" s="104" t="s">
+      <c r="F51" s="87"/>
+      <c r="G51" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="H51" s="107"/>
-      <c r="I51" s="99" t="s">
+      <c r="H51" s="86"/>
+      <c r="I51" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J51" s="104"/>
-      <c r="K51" s="99" t="s">
+      <c r="J51" s="83"/>
+      <c r="K51" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L51" s="99" t="s">
+      <c r="L51" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="M51" s="109"/>
-      <c r="N51" s="97"/>
-      <c r="O51" s="105"/>
+      <c r="M51" s="88"/>
+      <c r="N51" s="76"/>
+      <c r="O51" s="84"/>
     </row>
     <row r="52" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A52" s="97"/>
-      <c r="B52" s="98" t="s">
+      <c r="A52" s="76"/>
+      <c r="B52" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="C52" s="104"/>
-      <c r="D52" s="105"/>
-      <c r="E52" s="104" t="s">
+      <c r="C52" s="83"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="F52" s="108"/>
-      <c r="G52" s="104" t="s">
+      <c r="F52" s="87"/>
+      <c r="G52" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="H52" s="107"/>
-      <c r="I52" s="99" t="s">
+      <c r="H52" s="86"/>
+      <c r="I52" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J52" s="104"/>
-      <c r="K52" s="99" t="s">
+      <c r="J52" s="83"/>
+      <c r="K52" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L52" s="99" t="s">
+      <c r="L52" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="M52" s="94" t="s">
+      <c r="M52" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N52" s="87" t="s">
+      <c r="N52" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="O52" s="105"/>
+      <c r="O52" s="84"/>
     </row>
     <row r="53" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A53" s="97"/>
-      <c r="B53" s="98" t="s">
+      <c r="A53" s="76"/>
+      <c r="B53" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="104"/>
-      <c r="D53" s="104"/>
-      <c r="E53" s="104"/>
-      <c r="F53" s="104" t="s">
+      <c r="C53" s="83"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="104"/>
-      <c r="H53" s="107"/>
-      <c r="I53" s="99" t="s">
+      <c r="G53" s="83"/>
+      <c r="H53" s="86"/>
+      <c r="I53" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J53" s="104"/>
-      <c r="K53" s="99" t="s">
+      <c r="J53" s="83"/>
+      <c r="K53" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L53" s="99" t="s">
+      <c r="L53" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="M53" s="94" t="s">
+      <c r="M53" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N53" s="97" t="s">
+      <c r="N53" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="O53" s="105"/>
+      <c r="O53" s="84"/>
     </row>
     <row r="54" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A54" s="97"/>
-      <c r="B54" s="98" t="s">
+      <c r="A54" s="76"/>
+      <c r="B54" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99"/>
-      <c r="E54" s="99" t="s">
+      <c r="C54" s="78"/>
+      <c r="D54" s="78"/>
+      <c r="E54" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F54" s="99"/>
-      <c r="G54" s="99"/>
-      <c r="H54" s="107"/>
-      <c r="I54" s="99" t="s">
+      <c r="F54" s="78"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="86"/>
+      <c r="I54" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J54" s="104"/>
-      <c r="K54" s="99" t="s">
+      <c r="J54" s="83"/>
+      <c r="K54" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L54" s="99" t="s">
+      <c r="L54" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="M54" s="94" t="s">
+      <c r="M54" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="N54" s="97" t="s">
+      <c r="N54" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="O54" s="105"/>
+      <c r="O54" s="84"/>
     </row>
     <row r="55" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A55" s="97"/>
-      <c r="B55" s="98" t="s">
+      <c r="A55" s="76"/>
+      <c r="B55" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="C55" s="99"/>
-      <c r="D55" s="99"/>
-      <c r="E55" s="99" t="s">
+      <c r="C55" s="78"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="99" t="s">
+      <c r="F55" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="G55" s="99"/>
-      <c r="H55" s="107"/>
-      <c r="I55" s="99" t="s">
+      <c r="G55" s="78"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J55" s="104"/>
-      <c r="K55" s="99" t="s">
+      <c r="J55" s="83"/>
+      <c r="K55" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L55" s="99" t="s">
+      <c r="L55" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="M55" s="94" t="s">
+      <c r="M55" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="N55" s="97" t="s">
+      <c r="N55" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="O55" s="105"/>
+      <c r="O55" s="84"/>
     </row>
     <row r="56" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A56" s="97"/>
-      <c r="B56" s="98" t="s">
+      <c r="A56" s="76"/>
+      <c r="B56" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="C56" s="99"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="99" t="s">
+      <c r="C56" s="78"/>
+      <c r="D56" s="78"/>
+      <c r="E56" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F56" s="99"/>
-      <c r="G56" s="99"/>
-      <c r="H56" s="107"/>
-      <c r="I56" s="99" t="s">
+      <c r="F56" s="78"/>
+      <c r="G56" s="78"/>
+      <c r="H56" s="86"/>
+      <c r="I56" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J56" s="104"/>
-      <c r="K56" s="99" t="s">
+      <c r="J56" s="83"/>
+      <c r="K56" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L56" s="99" t="s">
+      <c r="L56" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="M56" s="94" t="s">
+      <c r="M56" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N56" s="110"/>
-      <c r="O56" s="105"/>
+      <c r="N56" s="89"/>
+      <c r="O56" s="84"/>
     </row>
     <row r="57" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A57" s="97"/>
-      <c r="B57" s="98" t="s">
+      <c r="A57" s="76"/>
+      <c r="B57" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="C57" s="99"/>
-      <c r="D57" s="99"/>
-      <c r="E57" s="99" t="s">
+      <c r="C57" s="78"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="99"/>
-      <c r="G57" s="99"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="99" t="s">
+      <c r="F57" s="78"/>
+      <c r="G57" s="78"/>
+      <c r="H57" s="86"/>
+      <c r="I57" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J57" s="104"/>
-      <c r="K57" s="99" t="s">
+      <c r="J57" s="83"/>
+      <c r="K57" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L57" s="99" t="s">
+      <c r="L57" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="M57" s="94" t="s">
+      <c r="M57" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N57" s="110"/>
-      <c r="O57" s="105"/>
+      <c r="N57" s="89"/>
+      <c r="O57" s="84"/>
     </row>
     <row r="58" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A58" s="97"/>
-      <c r="B58" s="98" t="s">
+      <c r="A58" s="76"/>
+      <c r="B58" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="C58" s="99"/>
-      <c r="D58" s="99"/>
-      <c r="E58" s="99" t="s">
+      <c r="C58" s="78"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F58" s="99"/>
-      <c r="G58" s="99" t="s">
+      <c r="F58" s="78"/>
+      <c r="G58" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H58" s="107"/>
-      <c r="I58" s="99" t="s">
+      <c r="H58" s="86"/>
+      <c r="I58" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J58" s="104"/>
-      <c r="K58" s="99" t="s">
+      <c r="J58" s="83"/>
+      <c r="K58" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L58" s="99" t="s">
+      <c r="L58" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M58" s="107"/>
-      <c r="N58" s="97" t="s">
+      <c r="M58" s="86"/>
+      <c r="N58" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="O58" s="105"/>
+      <c r="O58" s="84"/>
     </row>
     <row r="59" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A59" s="97"/>
-      <c r="B59" s="98" t="s">
+      <c r="A59" s="76"/>
+      <c r="B59" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="C59" s="99"/>
-      <c r="D59" s="99"/>
-      <c r="E59" s="99" t="s">
+      <c r="C59" s="78"/>
+      <c r="D59" s="78"/>
+      <c r="E59" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F59" s="99"/>
-      <c r="G59" s="99"/>
-      <c r="H59" s="107"/>
-      <c r="I59" s="99" t="s">
+      <c r="F59" s="78"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="86"/>
+      <c r="I59" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J59" s="104"/>
-      <c r="K59" s="99" t="s">
+      <c r="J59" s="83"/>
+      <c r="K59" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L59" s="99" t="s">
+      <c r="L59" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M59" s="109"/>
-      <c r="N59" s="97" t="s">
+      <c r="M59" s="88"/>
+      <c r="N59" s="76" t="s">
         <v>176</v>
       </c>
-      <c r="O59" s="105"/>
+      <c r="O59" s="84"/>
     </row>
     <row r="60" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A60" s="87"/>
-      <c r="B60" s="98" t="s">
+      <c r="A60" s="66"/>
+      <c r="B60" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="C60" s="99"/>
-      <c r="D60" s="99"/>
-      <c r="E60" s="99" t="s">
+      <c r="C60" s="78"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F60" s="99"/>
-      <c r="G60" s="99" t="s">
+      <c r="F60" s="78"/>
+      <c r="G60" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H60" s="113" t="s">
+      <c r="H60" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="I60" s="99" t="s">
+      <c r="I60" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J60" s="104"/>
-      <c r="K60" s="99" t="s">
+      <c r="J60" s="83"/>
+      <c r="K60" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L60" s="99" t="s">
+      <c r="L60" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="M60" s="94" t="s">
+      <c r="M60" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N60" s="97" t="s">
+      <c r="N60" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="O60" s="105"/>
+      <c r="O60" s="84"/>
     </row>
     <row r="61" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A61" s="87"/>
-      <c r="B61" s="98" t="s">
+      <c r="A61" s="66"/>
+      <c r="B61" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="C61" s="99"/>
-      <c r="D61" s="99"/>
-      <c r="E61" s="99" t="s">
+      <c r="C61" s="78"/>
+      <c r="D61" s="78"/>
+      <c r="E61" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="99" t="s">
+      <c r="F61" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="G61" s="99"/>
-      <c r="H61" s="107"/>
-      <c r="I61" s="99" t="s">
+      <c r="G61" s="78"/>
+      <c r="H61" s="86"/>
+      <c r="I61" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J61" s="104"/>
-      <c r="K61" s="99" t="s">
+      <c r="J61" s="83"/>
+      <c r="K61" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L61" s="99" t="s">
+      <c r="L61" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="M61" s="94" t="s">
+      <c r="M61" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N61" s="97" t="s">
+      <c r="N61" s="76" t="s">
         <v>180</v>
       </c>
-      <c r="O61" s="105"/>
+      <c r="O61" s="84"/>
     </row>
     <row r="62" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A62" s="97"/>
-      <c r="B62" s="98" t="s">
+      <c r="A62" s="76"/>
+      <c r="B62" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="C62" s="99"/>
-      <c r="D62" s="99"/>
-      <c r="E62" s="99" t="s">
+      <c r="C62" s="78"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F62" s="99"/>
-      <c r="G62" s="99" t="s">
+      <c r="F62" s="78"/>
+      <c r="G62" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H62" s="107"/>
-      <c r="I62" s="99" t="s">
+      <c r="H62" s="86"/>
+      <c r="I62" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="J62" s="111" t="s">
+      <c r="J62" s="90" t="s">
         <v>182</v>
       </c>
-      <c r="K62" s="99"/>
-      <c r="L62" s="99" t="s">
+      <c r="K62" s="78"/>
+      <c r="L62" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="M62" s="106"/>
-      <c r="N62" s="97" t="s">
+      <c r="M62" s="85"/>
+      <c r="N62" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="O62" s="105"/>
+      <c r="O62" s="84"/>
     </row>
     <row r="63" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A63" s="97"/>
-      <c r="B63" s="98" t="s">
+      <c r="A63" s="76"/>
+      <c r="B63" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="C63" s="105"/>
-      <c r="D63" s="105"/>
-      <c r="E63" s="105" t="s">
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F63" s="105"/>
-      <c r="G63" s="105" t="s">
+      <c r="F63" s="84"/>
+      <c r="G63" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="H63" s="113" t="s">
+      <c r="H63" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="I63" s="99" t="s">
+      <c r="I63" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="J63" s="105"/>
-      <c r="K63" s="108" t="s">
+      <c r="J63" s="84"/>
+      <c r="K63" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="L63" s="99" t="s">
+      <c r="L63" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="M63" s="94" t="s">
+      <c r="M63" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N63" s="112" t="s">
+      <c r="N63" s="91" t="s">
         <v>186</v>
       </c>
-      <c r="O63" s="105"/>
+      <c r="O63" s="84"/>
     </row>
     <row r="64" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A64" s="97"/>
-      <c r="B64" s="98" t="s">
+      <c r="A64" s="76"/>
+      <c r="B64" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="C64" s="99"/>
-      <c r="D64" s="99"/>
-      <c r="E64" s="99" t="s">
+      <c r="C64" s="78"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F64" s="99" t="s">
+      <c r="F64" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="G64" s="99"/>
-      <c r="H64" s="107"/>
-      <c r="I64" s="99" t="s">
+      <c r="G64" s="78"/>
+      <c r="H64" s="86"/>
+      <c r="I64" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J64" s="104"/>
-      <c r="K64" s="99" t="s">
+      <c r="J64" s="83"/>
+      <c r="K64" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L64" s="99" t="s">
+      <c r="L64" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="M64" s="94" t="s">
+      <c r="M64" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N64" s="97" t="s">
+      <c r="N64" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="O64" s="105"/>
+      <c r="O64" s="84"/>
     </row>
     <row r="65" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A65" s="97"/>
-      <c r="B65" s="98" t="s">
+      <c r="A65" s="76"/>
+      <c r="B65" s="77" t="s">
         <v>189</v>
       </c>
-      <c r="C65" s="99"/>
-      <c r="D65" s="99"/>
-      <c r="E65" s="99" t="s">
+      <c r="C65" s="78"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="99" t="s">
+      <c r="F65" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="G65" s="99"/>
-      <c r="H65" s="107"/>
-      <c r="I65" s="99" t="s">
+      <c r="G65" s="78"/>
+      <c r="H65" s="86"/>
+      <c r="I65" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J65" s="104"/>
-      <c r="K65" s="99" t="s">
+      <c r="J65" s="83"/>
+      <c r="K65" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L65" s="99" t="s">
+      <c r="L65" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="M65" s="94" t="s">
+      <c r="M65" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N65" s="97" t="s">
+      <c r="N65" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="O65" s="105"/>
+      <c r="O65" s="84"/>
     </row>
     <row r="66" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A66" s="97"/>
-      <c r="B66" s="98" t="s">
+      <c r="A66" s="76"/>
+      <c r="B66" s="77" t="s">
         <v>191</v>
       </c>
-      <c r="C66" s="99"/>
-      <c r="D66" s="99"/>
-      <c r="E66" s="99" t="s">
+      <c r="C66" s="78"/>
+      <c r="D66" s="78"/>
+      <c r="E66" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F66" s="99"/>
-      <c r="G66" s="99"/>
-      <c r="H66" s="113" t="s">
+      <c r="F66" s="78"/>
+      <c r="G66" s="78"/>
+      <c r="H66" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="I66" s="99" t="s">
+      <c r="I66" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J66" s="104"/>
-      <c r="K66" s="99" t="s">
+      <c r="J66" s="83"/>
+      <c r="K66" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L66" s="99" t="s">
+      <c r="L66" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="M66" s="94" t="s">
+      <c r="M66" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N66" s="97" t="s">
+      <c r="N66" s="76" t="s">
         <v>192</v>
       </c>
-      <c r="O66" s="105"/>
+      <c r="O66" s="84"/>
     </row>
     <row r="67" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A67" s="97"/>
-      <c r="B67" s="98" t="s">
+      <c r="A67" s="76"/>
+      <c r="B67" s="77" t="s">
         <v>193</v>
       </c>
-      <c r="C67" s="105"/>
-      <c r="D67" s="105"/>
-      <c r="E67" s="105" t="s">
+      <c r="C67" s="84"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="F67" s="105"/>
-      <c r="G67" s="105"/>
-      <c r="H67" s="106" t="s">
+      <c r="F67" s="84"/>
+      <c r="G67" s="84"/>
+      <c r="H67" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="I67" s="99" t="s">
+      <c r="I67" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J67" s="105"/>
-      <c r="K67" s="99" t="s">
+      <c r="J67" s="84"/>
+      <c r="K67" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L67" s="108" t="s">
+      <c r="L67" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="M67" s="94" t="s">
+      <c r="M67" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N67" s="97" t="s">
+      <c r="N67" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="O67" s="105"/>
+      <c r="O67" s="84"/>
     </row>
     <row r="68" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A68" s="97"/>
-      <c r="B68" s="119" t="s">
+      <c r="A68" s="76"/>
+      <c r="B68" s="98" t="s">
         <v>195</v>
       </c>
-      <c r="C68" s="99"/>
-      <c r="D68" s="99"/>
-      <c r="E68" s="99" t="s">
+      <c r="C68" s="78"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F68" s="99"/>
-      <c r="G68" s="99"/>
-      <c r="H68" s="113" t="s">
+      <c r="F68" s="78"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="I68" s="99" t="s">
+      <c r="I68" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J68" s="104"/>
-      <c r="K68" s="99" t="s">
+      <c r="J68" s="83"/>
+      <c r="K68" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L68" s="99" t="s">
+      <c r="L68" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="M68" s="94" t="s">
+      <c r="M68" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N68" s="97" t="s">
+      <c r="N68" s="76" t="s">
         <v>196</v>
       </c>
-      <c r="O68" s="105"/>
+      <c r="O68" s="84"/>
     </row>
     <row r="69" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A69" s="97"/>
-      <c r="B69" s="98" t="s">
+      <c r="A69" s="76"/>
+      <c r="B69" s="77" t="s">
         <v>197</v>
       </c>
-      <c r="C69" s="99"/>
-      <c r="D69" s="99"/>
-      <c r="E69" s="99" t="s">
+      <c r="C69" s="78"/>
+      <c r="D69" s="78"/>
+      <c r="E69" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F69" s="99" t="s">
+      <c r="F69" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="G69" s="99"/>
-      <c r="H69" s="107"/>
-      <c r="I69" s="99" t="s">
+      <c r="G69" s="78"/>
+      <c r="H69" s="86"/>
+      <c r="I69" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J69" s="104"/>
-      <c r="K69" s="99" t="s">
+      <c r="J69" s="83"/>
+      <c r="K69" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L69" s="99" t="s">
+      <c r="L69" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M69" s="94" t="s">
+      <c r="M69" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N69" s="110"/>
-      <c r="O69" s="105"/>
+      <c r="N69" s="89"/>
+      <c r="O69" s="84"/>
     </row>
     <row r="70" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A70" s="97"/>
-      <c r="B70" s="98" t="s">
+      <c r="A70" s="76"/>
+      <c r="B70" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="C70" s="99"/>
-      <c r="D70" s="99"/>
-      <c r="E70" s="99" t="s">
+      <c r="C70" s="78"/>
+      <c r="D70" s="78"/>
+      <c r="E70" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F70" s="99"/>
-      <c r="G70" s="99"/>
-      <c r="H70" s="107"/>
-      <c r="I70" s="99" t="s">
+      <c r="F70" s="78"/>
+      <c r="G70" s="78"/>
+      <c r="H70" s="86"/>
+      <c r="I70" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J70" s="104"/>
-      <c r="K70" s="99" t="s">
+      <c r="J70" s="83"/>
+      <c r="K70" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L70" s="99" t="s">
+      <c r="L70" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="M70" s="94" t="s">
+      <c r="M70" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N70" s="87" t="s">
+      <c r="N70" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="O70" s="105"/>
+      <c r="O70" s="84"/>
     </row>
     <row r="71" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A71" s="97"/>
-      <c r="B71" s="98" t="s">
+      <c r="A71" s="76"/>
+      <c r="B71" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="C71" s="99"/>
-      <c r="D71" s="99"/>
-      <c r="E71" s="99" t="s">
+      <c r="C71" s="78"/>
+      <c r="D71" s="78"/>
+      <c r="E71" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F71" s="99"/>
-      <c r="G71" s="99" t="s">
+      <c r="F71" s="78"/>
+      <c r="G71" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H71" s="107"/>
-      <c r="I71" s="99" t="s">
+      <c r="H71" s="86"/>
+      <c r="I71" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J71" s="104"/>
-      <c r="K71" s="99" t="s">
+      <c r="J71" s="83"/>
+      <c r="K71" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L71" s="99" t="s">
+      <c r="L71" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="M71" s="94" t="s">
+      <c r="M71" s="73" t="s">
         <v>201</v>
       </c>
-      <c r="N71" s="97" t="s">
+      <c r="N71" s="76" t="s">
         <v>202</v>
       </c>
-      <c r="O71" s="105"/>
+      <c r="O71" s="84"/>
     </row>
     <row r="72" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A72" s="97"/>
-      <c r="B72" s="98" t="s">
+      <c r="A72" s="76"/>
+      <c r="B72" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="C72" s="99"/>
-      <c r="D72" s="99"/>
-      <c r="E72" s="99" t="s">
+      <c r="C72" s="78"/>
+      <c r="D72" s="78"/>
+      <c r="E72" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F72" s="99"/>
-      <c r="G72" s="99" t="s">
+      <c r="F72" s="78"/>
+      <c r="G72" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H72" s="107"/>
-      <c r="I72" s="99" t="s">
+      <c r="H72" s="86"/>
+      <c r="I72" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J72" s="104"/>
-      <c r="K72" s="99" t="s">
+      <c r="J72" s="83"/>
+      <c r="K72" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L72" s="99" t="s">
+      <c r="L72" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="M72" s="94" t="s">
+      <c r="M72" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="N72" s="97" t="s">
+      <c r="N72" s="76" t="s">
         <v>204</v>
       </c>
-      <c r="O72" s="105"/>
+      <c r="O72" s="84"/>
     </row>
     <row r="73" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A73" s="87"/>
-      <c r="B73" s="98" t="s">
+      <c r="A73" s="66"/>
+      <c r="B73" s="77" t="s">
         <v>205</v>
       </c>
-      <c r="C73" s="99"/>
-      <c r="D73" s="99"/>
-      <c r="E73" s="99"/>
-      <c r="F73" s="99"/>
-      <c r="G73" s="99" t="s">
+      <c r="C73" s="78"/>
+      <c r="D73" s="78"/>
+      <c r="E73" s="78"/>
+      <c r="F73" s="78"/>
+      <c r="G73" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H73" s="113"/>
-      <c r="I73" s="99" t="s">
+      <c r="H73" s="92"/>
+      <c r="I73" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J73" s="104"/>
-      <c r="K73" s="99" t="s">
+      <c r="J73" s="83"/>
+      <c r="K73" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L73" s="99" t="s">
+      <c r="L73" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="M73" s="94" t="s">
+      <c r="M73" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="N73" s="97" t="s">
+      <c r="N73" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="O73" s="105"/>
+      <c r="O73" s="84"/>
     </row>
     <row r="74" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A74" s="97"/>
-      <c r="B74" s="98" t="s">
+      <c r="A74" s="76"/>
+      <c r="B74" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="C74" s="99"/>
-      <c r="D74" s="99"/>
-      <c r="E74" s="99" t="s">
+      <c r="C74" s="78"/>
+      <c r="D74" s="78"/>
+      <c r="E74" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F74" s="99"/>
-      <c r="G74" s="99" t="s">
+      <c r="F74" s="78"/>
+      <c r="G74" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H74" s="107"/>
-      <c r="I74" s="99" t="s">
+      <c r="H74" s="86"/>
+      <c r="I74" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J74" s="104"/>
-      <c r="K74" s="99" t="s">
+      <c r="J74" s="83"/>
+      <c r="K74" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L74" s="99" t="s">
+      <c r="L74" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="M74" s="94" t="s">
+      <c r="M74" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="N74" s="97" t="s">
+      <c r="N74" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="O74" s="105"/>
+      <c r="O74" s="84"/>
     </row>
     <row r="75" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A75" s="97"/>
-      <c r="B75" s="98" t="s">
+      <c r="A75" s="76"/>
+      <c r="B75" s="77" t="s">
         <v>210</v>
       </c>
-      <c r="C75" s="99"/>
-      <c r="D75" s="99"/>
-      <c r="E75" s="99" t="s">
+      <c r="C75" s="78"/>
+      <c r="D75" s="78"/>
+      <c r="E75" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F75" s="99"/>
-      <c r="G75" s="99" t="s">
+      <c r="F75" s="78"/>
+      <c r="G75" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H75" s="107"/>
-      <c r="I75" s="99" t="s">
+      <c r="H75" s="86"/>
+      <c r="I75" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J75" s="104"/>
-      <c r="K75" s="99" t="s">
+      <c r="J75" s="83"/>
+      <c r="K75" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L75" s="99" t="s">
+      <c r="L75" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M75" s="94" t="s">
+      <c r="M75" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="N75" s="97" t="s">
+      <c r="N75" s="76" t="s">
         <v>211</v>
       </c>
-      <c r="O75" s="105"/>
+      <c r="O75" s="84"/>
     </row>
     <row r="76" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A76" s="97"/>
-      <c r="B76" s="98" t="s">
+      <c r="A76" s="76"/>
+      <c r="B76" s="77" t="s">
         <v>212</v>
       </c>
-      <c r="C76" s="99"/>
-      <c r="D76" s="99"/>
-      <c r="E76" s="99"/>
-      <c r="F76" s="99" t="s">
+      <c r="C76" s="78"/>
+      <c r="D76" s="78"/>
+      <c r="E76" s="78"/>
+      <c r="F76" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="G76" s="99"/>
-      <c r="H76" s="107"/>
-      <c r="I76" s="99" t="s">
+      <c r="G76" s="78"/>
+      <c r="H76" s="86"/>
+      <c r="I76" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J76" s="104"/>
-      <c r="K76" s="99" t="s">
+      <c r="J76" s="83"/>
+      <c r="K76" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L76" s="99" t="s">
+      <c r="L76" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="M76" s="94" t="s">
+      <c r="M76" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N76" s="97" t="s">
+      <c r="N76" s="76" t="s">
         <v>213</v>
       </c>
-      <c r="O76" s="105"/>
+      <c r="O76" s="84"/>
     </row>
     <row r="77" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A77" s="97"/>
-      <c r="B77" s="98" t="s">
+      <c r="A77" s="76"/>
+      <c r="B77" s="77" t="s">
         <v>214</v>
       </c>
-      <c r="C77" s="99"/>
-      <c r="D77" s="99"/>
-      <c r="E77" s="99" t="s">
+      <c r="C77" s="78"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F77" s="99"/>
-      <c r="G77" s="99" t="s">
+      <c r="F77" s="78"/>
+      <c r="G77" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H77" s="113" t="s">
+      <c r="H77" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="99" t="s">
+      <c r="I77" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J77" s="104"/>
-      <c r="K77" s="99" t="s">
+      <c r="J77" s="83"/>
+      <c r="K77" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L77" s="99" t="s">
+      <c r="L77" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="M77" s="94" t="s">
+      <c r="M77" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N77" s="97" t="s">
+      <c r="N77" s="76" t="s">
         <v>192</v>
       </c>
-      <c r="O77" s="105"/>
+      <c r="O77" s="84"/>
     </row>
     <row r="78" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A78" s="97"/>
-      <c r="B78" s="98" t="s">
+      <c r="A78" s="76"/>
+      <c r="B78" s="77" t="s">
         <v>215</v>
       </c>
-      <c r="C78" s="99"/>
-      <c r="D78" s="99"/>
-      <c r="E78" s="99" t="s">
+      <c r="C78" s="78"/>
+      <c r="D78" s="78"/>
+      <c r="E78" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F78" s="99" t="s">
+      <c r="F78" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="G78" s="99" t="s">
+      <c r="G78" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H78" s="107"/>
-      <c r="I78" s="99" t="s">
+      <c r="H78" s="86"/>
+      <c r="I78" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J78" s="104"/>
-      <c r="K78" s="99" t="s">
+      <c r="J78" s="83"/>
+      <c r="K78" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L78" s="99" t="s">
+      <c r="L78" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M78" s="106"/>
-      <c r="N78" s="97" t="s">
+      <c r="M78" s="85"/>
+      <c r="N78" s="76" t="s">
         <v>216</v>
       </c>
-      <c r="O78" s="105"/>
+      <c r="O78" s="84"/>
     </row>
     <row r="79" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A79" s="97"/>
-      <c r="B79" s="98" t="s">
+      <c r="A79" s="76"/>
+      <c r="B79" s="77" t="s">
         <v>217</v>
       </c>
-      <c r="C79" s="99"/>
-      <c r="D79" s="99"/>
-      <c r="E79" s="99"/>
-      <c r="F79" s="99" t="s">
+      <c r="C79" s="78"/>
+      <c r="D79" s="78"/>
+      <c r="E79" s="78"/>
+      <c r="F79" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="G79" s="99"/>
-      <c r="H79" s="107"/>
-      <c r="I79" s="99" t="s">
+      <c r="G79" s="78"/>
+      <c r="H79" s="86"/>
+      <c r="I79" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J79" s="104"/>
-      <c r="K79" s="99" t="s">
+      <c r="J79" s="83"/>
+      <c r="K79" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L79" s="99" t="s">
+      <c r="L79" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="M79" s="94" t="s">
+      <c r="M79" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N79" s="87" t="s">
+      <c r="N79" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="O79" s="105"/>
+      <c r="O79" s="84"/>
     </row>
     <row r="80" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A80" s="97"/>
-      <c r="B80" s="98" t="s">
+      <c r="A80" s="76"/>
+      <c r="B80" s="77" t="s">
         <v>219</v>
       </c>
-      <c r="C80" s="99"/>
-      <c r="D80" s="99"/>
-      <c r="E80" s="99" t="s">
+      <c r="C80" s="78"/>
+      <c r="D80" s="78"/>
+      <c r="E80" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F80" s="99"/>
-      <c r="G80" s="99"/>
-      <c r="H80" s="107"/>
-      <c r="I80" s="99" t="s">
+      <c r="F80" s="78"/>
+      <c r="G80" s="78"/>
+      <c r="H80" s="86"/>
+      <c r="I80" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J80" s="104"/>
-      <c r="K80" s="99" t="s">
+      <c r="J80" s="83"/>
+      <c r="K80" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L80" s="99" t="s">
+      <c r="L80" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="M80" s="94" t="s">
+      <c r="M80" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N80" s="97" t="s">
+      <c r="N80" s="76" t="s">
         <v>220</v>
       </c>
-      <c r="O80" s="105"/>
+      <c r="O80" s="84"/>
     </row>
     <row r="81" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A81" s="97"/>
-      <c r="B81" s="98" t="s">
+      <c r="A81" s="76"/>
+      <c r="B81" s="77" t="s">
         <v>221</v>
       </c>
-      <c r="C81" s="99"/>
-      <c r="D81" s="99"/>
-      <c r="E81" s="99" t="s">
+      <c r="C81" s="78"/>
+      <c r="D81" s="78"/>
+      <c r="E81" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F81" s="99"/>
-      <c r="G81" s="99" t="s">
+      <c r="F81" s="78"/>
+      <c r="G81" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H81" s="107"/>
-      <c r="I81" s="99" t="s">
+      <c r="H81" s="86"/>
+      <c r="I81" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J81" s="104"/>
-      <c r="K81" s="99" t="s">
+      <c r="J81" s="83"/>
+      <c r="K81" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L81" s="99" t="s">
+      <c r="L81" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M81" s="94"/>
-      <c r="N81" s="97"/>
-      <c r="O81" s="105"/>
+      <c r="M81" s="73"/>
+      <c r="N81" s="76"/>
+      <c r="O81" s="84"/>
     </row>
     <row r="82" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A82" s="97"/>
-      <c r="B82" s="98" t="s">
+      <c r="A82" s="76"/>
+      <c r="B82" s="77" t="s">
         <v>222</v>
       </c>
-      <c r="C82" s="99"/>
-      <c r="D82" s="99"/>
-      <c r="E82" s="99" t="s">
+      <c r="C82" s="78"/>
+      <c r="D82" s="78"/>
+      <c r="E82" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F82" s="99" t="s">
+      <c r="F82" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="G82" s="99" t="s">
+      <c r="G82" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H82" s="107"/>
-      <c r="I82" s="99" t="s">
+      <c r="H82" s="86"/>
+      <c r="I82" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J82" s="104"/>
-      <c r="K82" s="99" t="s">
+      <c r="J82" s="83"/>
+      <c r="K82" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L82" s="99" t="s">
+      <c r="L82" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="M82" s="94" t="s">
+      <c r="M82" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N82" s="97" t="s">
+      <c r="N82" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="O82" s="105"/>
+      <c r="O82" s="84"/>
     </row>
     <row r="83" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A83" s="97"/>
-      <c r="B83" s="98" t="s">
+      <c r="A83" s="76"/>
+      <c r="B83" s="77" t="s">
         <v>224</v>
       </c>
-      <c r="C83" s="99"/>
-      <c r="D83" s="99"/>
-      <c r="E83" s="99" t="s">
+      <c r="C83" s="78"/>
+      <c r="D83" s="78"/>
+      <c r="E83" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F83" s="99" t="s">
+      <c r="F83" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="G83" s="99" t="s">
+      <c r="G83" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H83" s="107"/>
-      <c r="I83" s="99" t="s">
+      <c r="H83" s="86"/>
+      <c r="I83" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J83" s="104"/>
-      <c r="K83" s="99" t="s">
+      <c r="J83" s="83"/>
+      <c r="K83" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L83" s="99" t="s">
+      <c r="L83" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="M83" s="94" t="s">
+      <c r="M83" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N83" s="97" t="s">
+      <c r="N83" s="76" t="s">
         <v>225</v>
       </c>
-      <c r="O83" s="105"/>
+      <c r="O83" s="84"/>
     </row>
     <row r="84" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A84" s="97"/>
-      <c r="B84" s="98" t="s">
+      <c r="A84" s="76"/>
+      <c r="B84" s="77" t="s">
         <v>226</v>
       </c>
-      <c r="C84" s="99"/>
-      <c r="D84" s="99"/>
-      <c r="E84" s="99" t="s">
+      <c r="C84" s="78"/>
+      <c r="D84" s="78"/>
+      <c r="E84" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F84" s="99" t="s">
+      <c r="F84" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="G84" s="99"/>
-      <c r="H84" s="107"/>
-      <c r="I84" s="99" t="s">
+      <c r="G84" s="78"/>
+      <c r="H84" s="86"/>
+      <c r="I84" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J84" s="104"/>
-      <c r="K84" s="99" t="s">
+      <c r="J84" s="83"/>
+      <c r="K84" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L84" s="99" t="s">
+      <c r="L84" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="M84" s="94" t="s">
+      <c r="M84" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N84" s="97"/>
-      <c r="O84" s="105"/>
+      <c r="N84" s="76"/>
+      <c r="O84" s="84"/>
     </row>
     <row r="85" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A85" s="97"/>
-      <c r="B85" s="98" t="s">
+      <c r="A85" s="76"/>
+      <c r="B85" s="77" t="s">
         <v>227</v>
       </c>
-      <c r="C85" s="99"/>
-      <c r="D85" s="99"/>
-      <c r="E85" s="99"/>
-      <c r="F85" s="99" t="s">
+      <c r="C85" s="78"/>
+      <c r="D85" s="78"/>
+      <c r="E85" s="78"/>
+      <c r="F85" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="G85" s="99"/>
-      <c r="H85" s="107"/>
-      <c r="I85" s="99" t="s">
+      <c r="G85" s="78"/>
+      <c r="H85" s="86"/>
+      <c r="I85" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J85" s="104"/>
-      <c r="K85" s="99" t="s">
+      <c r="J85" s="83"/>
+      <c r="K85" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L85" s="99" t="s">
+      <c r="L85" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="M85" s="94" t="s">
+      <c r="M85" s="73" t="s">
         <v>228</v>
       </c>
-      <c r="N85" s="97"/>
-      <c r="O85" s="105"/>
+      <c r="N85" s="76"/>
+      <c r="O85" s="84"/>
     </row>
     <row r="86" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A86" s="97"/>
-      <c r="B86" s="98" t="s">
+      <c r="A86" s="76"/>
+      <c r="B86" s="77" t="s">
         <v>229</v>
       </c>
-      <c r="C86" s="99"/>
-      <c r="D86" s="99"/>
-      <c r="E86" s="99"/>
-      <c r="F86" s="99"/>
-      <c r="G86" s="99" t="s">
+      <c r="C86" s="78"/>
+      <c r="D86" s="78"/>
+      <c r="E86" s="78"/>
+      <c r="F86" s="78"/>
+      <c r="G86" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H86" s="107"/>
-      <c r="I86" s="99" t="s">
+      <c r="H86" s="86"/>
+      <c r="I86" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J86" s="104"/>
-      <c r="K86" s="99" t="s">
+      <c r="J86" s="83"/>
+      <c r="K86" s="78" t="s">
         <v>230</v>
       </c>
-      <c r="L86" s="99" t="s">
+      <c r="L86" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="M86" s="94" t="s">
+      <c r="M86" s="73" t="s">
         <v>231</v>
       </c>
-      <c r="N86" s="97" t="s">
+      <c r="N86" s="76" t="s">
         <v>232</v>
       </c>
-      <c r="O86" s="105"/>
+      <c r="O86" s="84"/>
     </row>
     <row r="87" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A87" s="97"/>
-      <c r="B87" s="98" t="s">
+      <c r="A87" s="76"/>
+      <c r="B87" s="77" t="s">
         <v>233</v>
       </c>
-      <c r="C87" s="99"/>
-      <c r="D87" s="99"/>
-      <c r="E87" s="99"/>
-      <c r="F87" s="99"/>
-      <c r="G87" s="99" t="s">
+      <c r="C87" s="78"/>
+      <c r="D87" s="78"/>
+      <c r="E87" s="78"/>
+      <c r="F87" s="78"/>
+      <c r="G87" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H87" s="107"/>
-      <c r="I87" s="99" t="s">
+      <c r="H87" s="86"/>
+      <c r="I87" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J87" s="104"/>
-      <c r="K87" s="99" t="s">
+      <c r="J87" s="83"/>
+      <c r="K87" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="L87" s="99" t="s">
+      <c r="L87" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="M87" s="94" t="s">
+      <c r="M87" s="73" t="s">
         <v>234</v>
       </c>
-      <c r="N87" s="97"/>
-      <c r="O87" s="105"/>
+      <c r="N87" s="76"/>
+      <c r="O87" s="84"/>
     </row>
     <row r="88" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A88" s="97"/>
-      <c r="B88" s="98" t="s">
+      <c r="A88" s="76"/>
+      <c r="B88" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="C88" s="99"/>
-      <c r="D88" s="99"/>
-      <c r="E88" s="99"/>
-      <c r="F88" s="99"/>
-      <c r="G88" s="99" t="s">
+      <c r="C88" s="78"/>
+      <c r="D88" s="78"/>
+      <c r="E88" s="78"/>
+      <c r="F88" s="78"/>
+      <c r="G88" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H88" s="107"/>
-      <c r="I88" s="99" t="s">
+      <c r="H88" s="86"/>
+      <c r="I88" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J88" s="104"/>
-      <c r="K88" s="99" t="s">
+      <c r="J88" s="83"/>
+      <c r="K88" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="L88" s="99" t="s">
+      <c r="L88" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="M88" s="94" t="s">
+      <c r="M88" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N88" s="97"/>
-      <c r="O88" s="105"/>
+      <c r="N88" s="76"/>
+      <c r="O88" s="84"/>
     </row>
     <row r="89" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A89" s="97"/>
-      <c r="B89" s="98" t="s">
+      <c r="A89" s="76"/>
+      <c r="B89" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="C89" s="99"/>
-      <c r="D89" s="99"/>
-      <c r="E89" s="99"/>
-      <c r="F89" s="99"/>
-      <c r="G89" s="99" t="s">
+      <c r="C89" s="78"/>
+      <c r="D89" s="78"/>
+      <c r="E89" s="78"/>
+      <c r="F89" s="78"/>
+      <c r="G89" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="H89" s="107"/>
-      <c r="I89" s="99" t="s">
+      <c r="H89" s="86"/>
+      <c r="I89" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J89" s="104"/>
-      <c r="K89" s="99" t="s">
+      <c r="J89" s="83"/>
+      <c r="K89" s="78" t="s">
         <v>230</v>
       </c>
-      <c r="L89" s="99" t="s">
+      <c r="L89" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="M89" s="94" t="s">
+      <c r="M89" s="73" t="s">
         <v>237</v>
       </c>
-      <c r="N89" s="97"/>
-      <c r="O89" s="105"/>
+      <c r="N89" s="76"/>
+      <c r="O89" s="84"/>
     </row>
     <row r="90" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A90" s="97"/>
-      <c r="B90" s="98" t="s">
+      <c r="A90" s="76"/>
+      <c r="B90" s="77" t="s">
         <v>238</v>
       </c>
-      <c r="C90" s="105"/>
-      <c r="D90" s="105"/>
-      <c r="E90" s="105"/>
-      <c r="F90" s="105"/>
-      <c r="G90" s="105"/>
-      <c r="H90" s="106" t="s">
+      <c r="C90" s="84"/>
+      <c r="D90" s="84"/>
+      <c r="E90" s="84"/>
+      <c r="F90" s="84"/>
+      <c r="G90" s="84"/>
+      <c r="H90" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="I90" s="99" t="s">
+      <c r="I90" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="J90" s="105"/>
-      <c r="K90" s="108" t="s">
+      <c r="J90" s="84"/>
+      <c r="K90" s="87" t="s">
         <v>75</v>
       </c>
-      <c r="L90" s="99" t="s">
+      <c r="L90" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="M90" s="94" t="s">
+      <c r="M90" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="N90" s="97" t="s">
+      <c r="N90" s="76" t="s">
         <v>239</v>
       </c>
-      <c r="O90" s="105"/>
+      <c r="O90" s="84"/>
     </row>
     <row r="91" spans="1:15" ht="15.75" customHeight="1">
-      <c r="B91" s="114"/>
-      <c r="C91" s="114"/>
-      <c r="D91" s="115"/>
-      <c r="E91" s="115"/>
-      <c r="F91" s="115"/>
-      <c r="G91" s="115"/>
-      <c r="H91" s="116" t="s">
+      <c r="B91" s="93"/>
+      <c r="C91" s="93"/>
+      <c r="D91" s="94"/>
+      <c r="E91" s="94"/>
+      <c r="F91" s="94"/>
+      <c r="G91" s="94"/>
+      <c r="H91" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="I91" s="117">
+      <c r="I91" s="96">
         <v>89</v>
       </c>
-      <c r="J91" s="114"/>
-      <c r="K91" s="114"/>
-      <c r="L91" s="114"/>
-      <c r="M91" s="114"/>
-      <c r="N91" s="114"/>
+      <c r="J91" s="93"/>
+      <c r="K91" s="93"/>
+      <c r="L91" s="93"/>
+      <c r="M91" s="93"/>
+      <c r="N91" s="93"/>
     </row>
     <row r="92" spans="1:15" ht="15.75" customHeight="1"/>
     <row r="93" spans="1:15" ht="15.75" customHeight="1"/>
